--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96717967353772</v>
+        <v>20.9671796735379</v>
       </c>
       <c r="C2">
-        <v>11.93030669865009</v>
+        <v>11.93030669865017</v>
       </c>
       <c r="D2">
-        <v>8.36720762757737</v>
+        <v>8.367207627577402</v>
       </c>
       <c r="E2">
-        <v>11.49736115721274</v>
+        <v>11.49736115721278</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.98835502485043</v>
+        <v>63.98835502485096</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.785138042333879</v>
+        <v>5.785138042333892</v>
       </c>
       <c r="J2">
-        <v>17.6001460590155</v>
+        <v>17.6001460590157</v>
       </c>
       <c r="K2">
-        <v>12.79557469466255</v>
+        <v>12.79557469466267</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.33149452063418</v>
+        <v>19.3314945206342</v>
       </c>
       <c r="C3">
-        <v>10.97022889477947</v>
+        <v>10.97022889477956</v>
       </c>
       <c r="D3">
-        <v>7.854504777042393</v>
+        <v>7.854504777042377</v>
       </c>
       <c r="E3">
-        <v>10.80985401382195</v>
+        <v>10.809854013822</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.98938955465207</v>
+        <v>59.98938955465228</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.60929686482777</v>
+        <v>5.609296864827836</v>
       </c>
       <c r="J3">
-        <v>16.22021044695412</v>
+        <v>16.22021044695419</v>
       </c>
       <c r="K3">
-        <v>11.81723719680316</v>
+        <v>11.81723719680314</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.29403720838241</v>
+        <v>18.29403720838234</v>
       </c>
       <c r="C4">
-        <v>10.36302111520144</v>
+        <v>10.36302111520145</v>
       </c>
       <c r="D4">
-        <v>7.534961799798888</v>
+        <v>7.534961799798856</v>
       </c>
       <c r="E4">
-        <v>10.38205443179388</v>
+        <v>10.3820544317939</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.47189616830568</v>
+        <v>57.47189616830581</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.504658728067272</v>
+        <v>5.504658728067279</v>
       </c>
       <c r="J4">
-        <v>15.34332813995307</v>
+        <v>15.34332813995304</v>
       </c>
       <c r="K4">
-        <v>11.19387246768988</v>
+        <v>11.19387246768991</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86247559311425</v>
+        <v>17.86247559311433</v>
       </c>
       <c r="C5">
-        <v>10.11071769933203</v>
+        <v>10.11071769933206</v>
       </c>
       <c r="D5">
-        <v>7.403551438683835</v>
+        <v>7.403551438683764</v>
       </c>
       <c r="E5">
-        <v>10.20629068277218</v>
+        <v>10.2062906827722</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.42993163521088</v>
+        <v>56.42993163521074</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.462817387267031</v>
+        <v>5.462817387267083</v>
       </c>
       <c r="J5">
-        <v>14.97807212129874</v>
+        <v>14.9780721212988</v>
       </c>
       <c r="K5">
-        <v>10.93383129049041</v>
+        <v>10.9338312904904</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.79027275105629</v>
+        <v>17.79027275105624</v>
       </c>
       <c r="C6">
-        <v>10.06851839711818</v>
+        <v>10.06851839711826</v>
       </c>
       <c r="D6">
-        <v>7.381659589816435</v>
+        <v>7.381659589816397</v>
       </c>
       <c r="E6">
         <v>10.17701976214117</v>
@@ -579,19 +579,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.25593647368624</v>
+        <v>56.25593647368608</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.455917046831072</v>
+        <v>5.455917046831169</v>
       </c>
       <c r="J6">
-        <v>14.91693058788189</v>
+        <v>14.91693058788183</v>
       </c>
       <c r="K6">
-        <v>10.89027983623874</v>
+        <v>10.89027983623875</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.28825313875267</v>
+        <v>18.28825313875272</v>
       </c>
       <c r="C7">
-        <v>10.359638645857</v>
+        <v>10.35963864585717</v>
       </c>
       <c r="D7">
-        <v>7.533194356115835</v>
+        <v>7.533194356115867</v>
       </c>
       <c r="E7">
-        <v>10.37968978174072</v>
+        <v>10.37968978174075</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.45790929615627</v>
+        <v>57.45790929615647</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.504091246019217</v>
+        <v>5.504091246019219</v>
       </c>
       <c r="J7">
-        <v>15.33843481907582</v>
+        <v>15.3384348190759</v>
       </c>
       <c r="K7">
-        <v>11.19039020631912</v>
+        <v>11.1903902063192</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40976805431198</v>
+        <v>20.40976805431207</v>
       </c>
       <c r="C8">
-        <v>11.60268657303514</v>
+        <v>11.60268657303509</v>
       </c>
       <c r="D8">
-        <v>8.191395508353626</v>
+        <v>8.191395508353606</v>
       </c>
       <c r="E8">
-        <v>11.26146062726683</v>
+        <v>11.26146062726679</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.62203973344099</v>
+        <v>62.62203973344042</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.723790847246153</v>
+        <v>5.723790847246223</v>
       </c>
       <c r="J8">
-        <v>17.13017824170592</v>
+        <v>17.13017824170597</v>
       </c>
       <c r="K8">
-        <v>12.46274366570442</v>
+        <v>12.46274366570434</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33349833651036</v>
+        <v>24.3334983365105</v>
       </c>
       <c r="C9">
-        <v>13.92152575318178</v>
+        <v>13.92152575318189</v>
       </c>
       <c r="D9">
-        <v>9.447379209890869</v>
+        <v>9.447379209890945</v>
       </c>
       <c r="E9">
-        <v>12.94969711122493</v>
+        <v>12.949697111225</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.29357752190589</v>
+        <v>72.29357752190617</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.183492445174039</v>
+        <v>6.183492445174022</v>
       </c>
       <c r="J9">
-        <v>20.43465799479745</v>
+        <v>20.43465799479757</v>
       </c>
       <c r="K9">
-        <v>14.79486541784628</v>
+        <v>14.79486541784631</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.11978989776886</v>
+        <v>27.11978989776894</v>
       </c>
       <c r="C10">
-        <v>15.5903790160675</v>
+        <v>15.59037901606755</v>
       </c>
       <c r="D10">
-        <v>10.44020868189118</v>
+        <v>10.44020868189117</v>
       </c>
       <c r="E10">
-        <v>14.19793809504995</v>
+        <v>14.19793809505003</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.20382447016615</v>
+        <v>79.20382447016675</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.543918174292706</v>
+        <v>6.543918174292732</v>
       </c>
       <c r="J10">
-        <v>22.77938626328764</v>
+        <v>22.77938626328769</v>
       </c>
       <c r="K10">
-        <v>16.43776403385842</v>
+        <v>16.43776403385847</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.38119523432762</v>
+        <v>28.38119523432779</v>
       </c>
       <c r="C11">
-        <v>16.35333206552538</v>
+        <v>16.35333206552558</v>
       </c>
       <c r="D11">
-        <v>10.90170905585195</v>
+        <v>10.9017090558519</v>
       </c>
       <c r="E11">
-        <v>14.82702096574561</v>
+        <v>14.82702096574569</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.33383131182063</v>
+        <v>82.33383131182094</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.714609235978908</v>
+        <v>6.71460923597895</v>
       </c>
       <c r="J11">
-        <v>23.84135142669223</v>
+        <v>23.84135142669241</v>
       </c>
       <c r="K11">
-        <v>17.178427285346</v>
+        <v>17.17842728534612</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85965562780559</v>
+        <v>28.85965562780538</v>
       </c>
       <c r="C12">
-        <v>16.64405413585439</v>
+        <v>16.64405413585425</v>
       </c>
       <c r="D12">
-        <v>11.07613975574071</v>
+        <v>11.07613975574057</v>
       </c>
       <c r="E12">
-        <v>15.06484673304545</v>
+        <v>15.06484673304533</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.52056489998725</v>
+        <v>83.52056489998667</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.788215578438694</v>
+        <v>6.788215578438655</v>
       </c>
       <c r="J12">
-        <v>24.24430884785165</v>
+        <v>24.24430884785147</v>
       </c>
       <c r="K12">
-        <v>17.45888773388502</v>
+        <v>17.45888773388489</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75654357283259</v>
+        <v>28.75654357283256</v>
       </c>
       <c r="C13">
-        <v>16.58133752257864</v>
+        <v>16.58133752257878</v>
       </c>
       <c r="D13">
-        <v>11.038577721341</v>
+        <v>11.03857772134092</v>
       </c>
       <c r="E13">
-        <v>15.01363042757067</v>
+        <v>15.01363042757057</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.26484942334864</v>
+        <v>83.26484942334832</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.767669904808509</v>
+        <v>6.767669904808445</v>
       </c>
       <c r="J13">
-        <v>24.15746041492404</v>
+        <v>24.15746041492396</v>
       </c>
       <c r="K13">
-        <v>17.39846814487972</v>
+        <v>17.3984681448796</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.420531292584</v>
+        <v>28.42053129258381</v>
       </c>
       <c r="C14">
-        <v>16.37720519529259</v>
+        <v>16.37720519529275</v>
       </c>
       <c r="D14">
-        <v>10.91606265960013</v>
+        <v>10.91606265960002</v>
       </c>
       <c r="E14">
-        <v>14.84659003785437</v>
+        <v>14.84659003785422</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.4314118379818</v>
+        <v>82.43141183798063</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.719999347031294</v>
+        <v>6.719999347031319</v>
       </c>
       <c r="J14">
-        <v>23.87447667896506</v>
+        <v>23.8744766789649</v>
       </c>
       <c r="K14">
-        <v>17.20149481100862</v>
+        <v>17.20149481100851</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.21487498576534</v>
+        <v>28.21487498576535</v>
       </c>
       <c r="C15">
-        <v>16.25244724673765</v>
+        <v>16.2524472467377</v>
       </c>
       <c r="D15">
-        <v>10.84099373056454</v>
+        <v>10.84099373056448</v>
       </c>
       <c r="E15">
-        <v>14.74424668244518</v>
+        <v>14.74424668244512</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.92121761975221</v>
+        <v>81.9212176197524</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.691862395881251</v>
+        <v>6.691862395881248</v>
       </c>
       <c r="J15">
-        <v>23.70129803135627</v>
+        <v>23.70129803135634</v>
       </c>
       <c r="K15">
-        <v>17.08087392412466</v>
+        <v>17.08087392412459</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.03736401601683</v>
+        <v>27.03736401601669</v>
       </c>
       <c r="C16">
-        <v>15.54069484294615</v>
+        <v>15.54069484294605</v>
       </c>
       <c r="D16">
-        <v>10.40997079937201</v>
+        <v>10.40997079937192</v>
       </c>
       <c r="E16">
-        <v>14.15672681593174</v>
+        <v>14.15672681593162</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.99926792848548</v>
+        <v>78.99926792848537</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.532915727448187</v>
+        <v>6.532915727448131</v>
       </c>
       <c r="J16">
-        <v>22.71000859083814</v>
+        <v>22.71000859083802</v>
       </c>
       <c r="K16">
-        <v>16.38930081497952</v>
+        <v>16.38930081497941</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.31449053881891</v>
+        <v>26.31449053881888</v>
       </c>
       <c r="C17">
-        <v>15.10582506875485</v>
+        <v>15.10582506875477</v>
       </c>
       <c r="D17">
-        <v>10.14436332577414</v>
+        <v>10.14436332577413</v>
       </c>
       <c r="E17">
         <v>13.8206581213001</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.20540671349561</v>
+        <v>77.20540671349552</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.437265843184678</v>
+        <v>6.437265843184716</v>
       </c>
       <c r="J17">
-        <v>22.10162886406767</v>
+        <v>22.10162886406766</v>
       </c>
       <c r="K17">
-        <v>15.963929115419</v>
+        <v>15.96392911541897</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89801702278777</v>
+        <v>25.89801702278771</v>
       </c>
       <c r="C18">
-        <v>14.85596336422817</v>
+        <v>14.85596336422776</v>
       </c>
       <c r="D18">
-        <v>9.990995972225939</v>
+        <v>9.990995972225768</v>
       </c>
       <c r="E18">
-        <v>13.63680706681417</v>
+        <v>13.63680706681415</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.17209912727307</v>
+        <v>76.1720991272723</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.382867425951837</v>
+        <v>6.382867425951842</v>
       </c>
       <c r="J18">
-        <v>21.75115783005903</v>
+        <v>21.75115783005885</v>
       </c>
       <c r="K18">
-        <v>15.71856687192751</v>
+        <v>15.71856687192743</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7568429647974</v>
+        <v>25.75684296479731</v>
       </c>
       <c r="C19">
-        <v>14.77137656810938</v>
+        <v>14.77137656810952</v>
       </c>
       <c r="D19">
-        <v>9.938952074966679</v>
+        <v>9.938952074966636</v>
       </c>
       <c r="E19">
-        <v>13.57456833084424</v>
+        <v>13.57456833084426</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.82188899616553</v>
+        <v>75.82188899616554</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.364549441938788</v>
+        <v>6.36454944193882</v>
       </c>
       <c r="J19">
-        <v>21.63236129656432</v>
+        <v>21.6323612965643</v>
       </c>
       <c r="K19">
-        <v>15.63534617874307</v>
+        <v>15.63534617874312</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.39150300117301</v>
+        <v>26.39150300117319</v>
       </c>
       <c r="C20">
-        <v>15.1520822926984</v>
+        <v>15.15208229269858</v>
       </c>
       <c r="D20">
-        <v>10.1726961138461</v>
+        <v>10.17269611384608</v>
       </c>
       <c r="E20">
-        <v>13.85469311853995</v>
+        <v>13.85469311854002</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.39650276675725</v>
+        <v>77.39650276675735</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.447382729433092</v>
+        <v>6.447382729433096</v>
       </c>
       <c r="J20">
-        <v>22.16643902896926</v>
+        <v>22.1664390289694</v>
       </c>
       <c r="K20">
-        <v>16.00927697018843</v>
+        <v>16.00927697018861</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.51918903216898</v>
+        <v>28.5191890321688</v>
       </c>
       <c r="C21">
-        <v>16.43710288823879</v>
+        <v>16.43710288823845</v>
       </c>
       <c r="D21">
-        <v>10.95205234821721</v>
+        <v>10.95205234821726</v>
       </c>
       <c r="E21">
-        <v>14.89565773154817</v>
+        <v>14.8956577315482</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.67614033256049</v>
+        <v>82.67614033256029</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>6.733535332776743</v>
       </c>
       <c r="J21">
-        <v>23.95755987486082</v>
+        <v>23.95755987486064</v>
       </c>
       <c r="K21">
-        <v>17.25934212028694</v>
+        <v>17.25934212028692</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.91553482268689</v>
+        <v>29.91553482268698</v>
       </c>
       <c r="C22">
-        <v>17.28834914122708</v>
+        <v>17.28834914122712</v>
       </c>
       <c r="D22">
-        <v>11.45984476570892</v>
+        <v>11.4598447657091</v>
       </c>
       <c r="E22">
-        <v>15.58812476777562</v>
+        <v>15.5881247677756</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.13767404671032</v>
+        <v>86.13767404671049</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.998388019571957</v>
+        <v>6.998388019571898</v>
       </c>
       <c r="J22">
-        <v>25.133926123394</v>
+        <v>25.13392612339407</v>
       </c>
       <c r="K22">
-        <v>18.07690825265448</v>
+        <v>18.0769082526545</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.16906484082585</v>
+        <v>29.16906484082579</v>
       </c>
       <c r="C23">
-        <v>16.8324614208269</v>
+        <v>16.8324614208268</v>
       </c>
       <c r="D23">
-        <v>11.18875561344219</v>
+        <v>11.18875561344208</v>
       </c>
       <c r="E23">
-        <v>15.21840915159506</v>
+        <v>15.21840915159501</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.28775844148463</v>
+        <v>84.28775844148412</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>6.849845221853164</v>
       </c>
       <c r="J23">
-        <v>24.50494329241715</v>
+        <v>24.50494329241705</v>
       </c>
       <c r="K23">
-        <v>17.64011762905885</v>
+        <v>17.64011762905875</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.35668853951371</v>
+        <v>26.35668853951375</v>
       </c>
       <c r="C24">
-        <v>15.13116902270625</v>
+        <v>15.13116902270595</v>
       </c>
       <c r="D24">
-        <v>10.15988897258722</v>
+        <v>10.15988897258719</v>
       </c>
       <c r="E24">
-        <v>13.83930573828213</v>
+        <v>13.83930573828209</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.31011469083558</v>
+        <v>77.31011469083583</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.442807056798728</v>
+        <v>6.442807056798755</v>
       </c>
       <c r="J24">
-        <v>22.13714065692156</v>
+        <v>22.13714065692153</v>
       </c>
       <c r="K24">
-        <v>15.98877779730659</v>
+        <v>15.98877779730655</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.29309083491781</v>
+        <v>23.29309083491774</v>
       </c>
       <c r="C25">
-        <v>13.30351403130828</v>
+        <v>13.3035140313085</v>
       </c>
       <c r="D25">
-        <v>9.11068441311196</v>
+        <v>9.110684413111859</v>
       </c>
       <c r="E25">
-        <v>12.49647793535519</v>
+        <v>12.49647793535518</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.7191368295066</v>
+        <v>69.71913682950702</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.055616287124573</v>
+        <v>6.055616287124578</v>
       </c>
       <c r="J25">
-        <v>19.5590573221939</v>
+        <v>19.55905732219395</v>
       </c>
       <c r="K25">
-        <v>14.17877655004818</v>
+        <v>14.17877655004819</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.9671796735379</v>
+        <v>20.96717967353772</v>
       </c>
       <c r="C2">
-        <v>11.93030669865017</v>
+        <v>11.93030669865009</v>
       </c>
       <c r="D2">
-        <v>8.367207627577402</v>
+        <v>8.36720762757737</v>
       </c>
       <c r="E2">
-        <v>11.49736115721278</v>
+        <v>11.49736115721274</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.98835502485096</v>
+        <v>63.98835502485043</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.785138042333892</v>
+        <v>5.785138042333879</v>
       </c>
       <c r="J2">
-        <v>17.6001460590157</v>
+        <v>17.6001460590155</v>
       </c>
       <c r="K2">
-        <v>12.79557469466267</v>
+        <v>12.79557469466255</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.3314945206342</v>
+        <v>19.33149452063418</v>
       </c>
       <c r="C3">
-        <v>10.97022889477956</v>
+        <v>10.97022889477947</v>
       </c>
       <c r="D3">
-        <v>7.854504777042377</v>
+        <v>7.854504777042393</v>
       </c>
       <c r="E3">
-        <v>10.809854013822</v>
+        <v>10.80985401382195</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.98938955465228</v>
+        <v>59.98938955465207</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.609296864827836</v>
+        <v>5.60929686482777</v>
       </c>
       <c r="J3">
-        <v>16.22021044695419</v>
+        <v>16.22021044695412</v>
       </c>
       <c r="K3">
-        <v>11.81723719680314</v>
+        <v>11.81723719680316</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.29403720838234</v>
+        <v>18.29403720838241</v>
       </c>
       <c r="C4">
-        <v>10.36302111520145</v>
+        <v>10.36302111520144</v>
       </c>
       <c r="D4">
-        <v>7.534961799798856</v>
+        <v>7.534961799798888</v>
       </c>
       <c r="E4">
-        <v>10.3820544317939</v>
+        <v>10.38205443179388</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.47189616830581</v>
+        <v>57.47189616830568</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.504658728067279</v>
+        <v>5.504658728067272</v>
       </c>
       <c r="J4">
-        <v>15.34332813995304</v>
+        <v>15.34332813995307</v>
       </c>
       <c r="K4">
-        <v>11.19387246768991</v>
+        <v>11.19387246768988</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86247559311433</v>
+        <v>17.86247559311425</v>
       </c>
       <c r="C5">
-        <v>10.11071769933206</v>
+        <v>10.11071769933203</v>
       </c>
       <c r="D5">
-        <v>7.403551438683764</v>
+        <v>7.403551438683835</v>
       </c>
       <c r="E5">
-        <v>10.2062906827722</v>
+        <v>10.20629068277218</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.42993163521074</v>
+        <v>56.42993163521088</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.462817387267083</v>
+        <v>5.462817387267031</v>
       </c>
       <c r="J5">
-        <v>14.9780721212988</v>
+        <v>14.97807212129874</v>
       </c>
       <c r="K5">
-        <v>10.9338312904904</v>
+        <v>10.93383129049041</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.79027275105624</v>
+        <v>17.79027275105629</v>
       </c>
       <c r="C6">
-        <v>10.06851839711826</v>
+        <v>10.06851839711818</v>
       </c>
       <c r="D6">
-        <v>7.381659589816397</v>
+        <v>7.381659589816435</v>
       </c>
       <c r="E6">
         <v>10.17701976214117</v>
@@ -579,19 +579,19 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.25593647368608</v>
+        <v>56.25593647368624</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.455917046831169</v>
+        <v>5.455917046831072</v>
       </c>
       <c r="J6">
-        <v>14.91693058788183</v>
+        <v>14.91693058788189</v>
       </c>
       <c r="K6">
-        <v>10.89027983623875</v>
+        <v>10.89027983623874</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.28825313875272</v>
+        <v>18.28825313875267</v>
       </c>
       <c r="C7">
-        <v>10.35963864585717</v>
+        <v>10.359638645857</v>
       </c>
       <c r="D7">
-        <v>7.533194356115867</v>
+        <v>7.533194356115835</v>
       </c>
       <c r="E7">
-        <v>10.37968978174075</v>
+        <v>10.37968978174072</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.45790929615647</v>
+        <v>57.45790929615627</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.504091246019219</v>
+        <v>5.504091246019217</v>
       </c>
       <c r="J7">
-        <v>15.3384348190759</v>
+        <v>15.33843481907582</v>
       </c>
       <c r="K7">
-        <v>11.1903902063192</v>
+        <v>11.19039020631912</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40976805431207</v>
+        <v>20.40976805431198</v>
       </c>
       <c r="C8">
-        <v>11.60268657303509</v>
+        <v>11.60268657303514</v>
       </c>
       <c r="D8">
-        <v>8.191395508353606</v>
+        <v>8.191395508353626</v>
       </c>
       <c r="E8">
-        <v>11.26146062726679</v>
+        <v>11.26146062726683</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.62203973344042</v>
+        <v>62.62203973344099</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.723790847246223</v>
+        <v>5.723790847246153</v>
       </c>
       <c r="J8">
-        <v>17.13017824170597</v>
+        <v>17.13017824170592</v>
       </c>
       <c r="K8">
-        <v>12.46274366570434</v>
+        <v>12.46274366570442</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.3334983365105</v>
+        <v>24.33349833651036</v>
       </c>
       <c r="C9">
-        <v>13.92152575318189</v>
+        <v>13.92152575318178</v>
       </c>
       <c r="D9">
-        <v>9.447379209890945</v>
+        <v>9.447379209890869</v>
       </c>
       <c r="E9">
-        <v>12.949697111225</v>
+        <v>12.94969711122493</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.29357752190617</v>
+        <v>72.29357752190589</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.183492445174022</v>
+        <v>6.183492445174039</v>
       </c>
       <c r="J9">
-        <v>20.43465799479757</v>
+        <v>20.43465799479745</v>
       </c>
       <c r="K9">
-        <v>14.79486541784631</v>
+        <v>14.79486541784628</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.11978989776894</v>
+        <v>27.11978989776886</v>
       </c>
       <c r="C10">
-        <v>15.59037901606755</v>
+        <v>15.5903790160675</v>
       </c>
       <c r="D10">
-        <v>10.44020868189117</v>
+        <v>10.44020868189118</v>
       </c>
       <c r="E10">
-        <v>14.19793809505003</v>
+        <v>14.19793809504995</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.20382447016675</v>
+        <v>79.20382447016615</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.543918174292732</v>
+        <v>6.543918174292706</v>
       </c>
       <c r="J10">
-        <v>22.77938626328769</v>
+        <v>22.77938626328764</v>
       </c>
       <c r="K10">
-        <v>16.43776403385847</v>
+        <v>16.43776403385842</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.38119523432779</v>
+        <v>28.38119523432762</v>
       </c>
       <c r="C11">
-        <v>16.35333206552558</v>
+        <v>16.35333206552538</v>
       </c>
       <c r="D11">
-        <v>10.9017090558519</v>
+        <v>10.90170905585195</v>
       </c>
       <c r="E11">
-        <v>14.82702096574569</v>
+        <v>14.82702096574561</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.33383131182094</v>
+        <v>82.33383131182063</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.71460923597895</v>
+        <v>6.714609235978908</v>
       </c>
       <c r="J11">
-        <v>23.84135142669241</v>
+        <v>23.84135142669223</v>
       </c>
       <c r="K11">
-        <v>17.17842728534612</v>
+        <v>17.178427285346</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85965562780538</v>
+        <v>28.85965562780559</v>
       </c>
       <c r="C12">
-        <v>16.64405413585425</v>
+        <v>16.64405413585439</v>
       </c>
       <c r="D12">
-        <v>11.07613975574057</v>
+        <v>11.07613975574071</v>
       </c>
       <c r="E12">
-        <v>15.06484673304533</v>
+        <v>15.06484673304545</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.52056489998667</v>
+        <v>83.52056489998725</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.788215578438655</v>
+        <v>6.788215578438694</v>
       </c>
       <c r="J12">
-        <v>24.24430884785147</v>
+        <v>24.24430884785165</v>
       </c>
       <c r="K12">
-        <v>17.45888773388489</v>
+        <v>17.45888773388502</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75654357283256</v>
+        <v>28.75654357283259</v>
       </c>
       <c r="C13">
-        <v>16.58133752257878</v>
+        <v>16.58133752257864</v>
       </c>
       <c r="D13">
-        <v>11.03857772134092</v>
+        <v>11.038577721341</v>
       </c>
       <c r="E13">
-        <v>15.01363042757057</v>
+        <v>15.01363042757067</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.26484942334832</v>
+        <v>83.26484942334864</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.767669904808445</v>
+        <v>6.767669904808509</v>
       </c>
       <c r="J13">
-        <v>24.15746041492396</v>
+        <v>24.15746041492404</v>
       </c>
       <c r="K13">
-        <v>17.3984681448796</v>
+        <v>17.39846814487972</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.42053129258381</v>
+        <v>28.420531292584</v>
       </c>
       <c r="C14">
-        <v>16.37720519529275</v>
+        <v>16.37720519529259</v>
       </c>
       <c r="D14">
-        <v>10.91606265960002</v>
+        <v>10.91606265960013</v>
       </c>
       <c r="E14">
-        <v>14.84659003785422</v>
+        <v>14.84659003785437</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.43141183798063</v>
+        <v>82.4314118379818</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.719999347031319</v>
+        <v>6.719999347031294</v>
       </c>
       <c r="J14">
-        <v>23.8744766789649</v>
+        <v>23.87447667896506</v>
       </c>
       <c r="K14">
-        <v>17.20149481100851</v>
+        <v>17.20149481100862</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.21487498576535</v>
+        <v>28.21487498576534</v>
       </c>
       <c r="C15">
-        <v>16.2524472467377</v>
+        <v>16.25244724673765</v>
       </c>
       <c r="D15">
-        <v>10.84099373056448</v>
+        <v>10.84099373056454</v>
       </c>
       <c r="E15">
-        <v>14.74424668244512</v>
+        <v>14.74424668244518</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.9212176197524</v>
+        <v>81.92121761975221</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.691862395881248</v>
+        <v>6.691862395881251</v>
       </c>
       <c r="J15">
-        <v>23.70129803135634</v>
+        <v>23.70129803135627</v>
       </c>
       <c r="K15">
-        <v>17.08087392412459</v>
+        <v>17.08087392412466</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.03736401601669</v>
+        <v>27.03736401601683</v>
       </c>
       <c r="C16">
-        <v>15.54069484294605</v>
+        <v>15.54069484294615</v>
       </c>
       <c r="D16">
-        <v>10.40997079937192</v>
+        <v>10.40997079937201</v>
       </c>
       <c r="E16">
-        <v>14.15672681593162</v>
+        <v>14.15672681593174</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.99926792848537</v>
+        <v>78.99926792848548</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.532915727448131</v>
+        <v>6.532915727448187</v>
       </c>
       <c r="J16">
-        <v>22.71000859083802</v>
+        <v>22.71000859083814</v>
       </c>
       <c r="K16">
-        <v>16.38930081497941</v>
+        <v>16.38930081497952</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.31449053881888</v>
+        <v>26.31449053881891</v>
       </c>
       <c r="C17">
-        <v>15.10582506875477</v>
+        <v>15.10582506875485</v>
       </c>
       <c r="D17">
-        <v>10.14436332577413</v>
+        <v>10.14436332577414</v>
       </c>
       <c r="E17">
         <v>13.8206581213001</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.20540671349552</v>
+        <v>77.20540671349561</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.437265843184716</v>
+        <v>6.437265843184678</v>
       </c>
       <c r="J17">
-        <v>22.10162886406766</v>
+        <v>22.10162886406767</v>
       </c>
       <c r="K17">
-        <v>15.96392911541897</v>
+        <v>15.963929115419</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89801702278771</v>
+        <v>25.89801702278777</v>
       </c>
       <c r="C18">
-        <v>14.85596336422776</v>
+        <v>14.85596336422817</v>
       </c>
       <c r="D18">
-        <v>9.990995972225768</v>
+        <v>9.990995972225939</v>
       </c>
       <c r="E18">
-        <v>13.63680706681415</v>
+        <v>13.63680706681417</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.1720991272723</v>
+        <v>76.17209912727307</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.382867425951842</v>
+        <v>6.382867425951837</v>
       </c>
       <c r="J18">
-        <v>21.75115783005885</v>
+        <v>21.75115783005903</v>
       </c>
       <c r="K18">
-        <v>15.71856687192743</v>
+        <v>15.71856687192751</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.75684296479731</v>
+        <v>25.7568429647974</v>
       </c>
       <c r="C19">
-        <v>14.77137656810952</v>
+        <v>14.77137656810938</v>
       </c>
       <c r="D19">
-        <v>9.938952074966636</v>
+        <v>9.938952074966679</v>
       </c>
       <c r="E19">
-        <v>13.57456833084426</v>
+        <v>13.57456833084424</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.82188899616554</v>
+        <v>75.82188899616553</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.36454944193882</v>
+        <v>6.364549441938788</v>
       </c>
       <c r="J19">
-        <v>21.6323612965643</v>
+        <v>21.63236129656432</v>
       </c>
       <c r="K19">
-        <v>15.63534617874312</v>
+        <v>15.63534617874307</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.39150300117319</v>
+        <v>26.39150300117301</v>
       </c>
       <c r="C20">
-        <v>15.15208229269858</v>
+        <v>15.1520822926984</v>
       </c>
       <c r="D20">
-        <v>10.17269611384608</v>
+        <v>10.1726961138461</v>
       </c>
       <c r="E20">
-        <v>13.85469311854002</v>
+        <v>13.85469311853995</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.39650276675735</v>
+        <v>77.39650276675725</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.447382729433096</v>
+        <v>6.447382729433092</v>
       </c>
       <c r="J20">
-        <v>22.1664390289694</v>
+        <v>22.16643902896926</v>
       </c>
       <c r="K20">
-        <v>16.00927697018861</v>
+        <v>16.00927697018843</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.5191890321688</v>
+        <v>28.51918903216898</v>
       </c>
       <c r="C21">
-        <v>16.43710288823845</v>
+        <v>16.43710288823879</v>
       </c>
       <c r="D21">
-        <v>10.95205234821726</v>
+        <v>10.95205234821721</v>
       </c>
       <c r="E21">
-        <v>14.8956577315482</v>
+        <v>14.89565773154817</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.67614033256029</v>
+        <v>82.67614033256049</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>6.733535332776743</v>
       </c>
       <c r="J21">
-        <v>23.95755987486064</v>
+        <v>23.95755987486082</v>
       </c>
       <c r="K21">
-        <v>17.25934212028692</v>
+        <v>17.25934212028694</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.91553482268698</v>
+        <v>29.91553482268689</v>
       </c>
       <c r="C22">
-        <v>17.28834914122712</v>
+        <v>17.28834914122708</v>
       </c>
       <c r="D22">
-        <v>11.4598447657091</v>
+        <v>11.45984476570892</v>
       </c>
       <c r="E22">
-        <v>15.5881247677756</v>
+        <v>15.58812476777562</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.13767404671049</v>
+        <v>86.13767404671032</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.998388019571898</v>
+        <v>6.998388019571957</v>
       </c>
       <c r="J22">
-        <v>25.13392612339407</v>
+        <v>25.133926123394</v>
       </c>
       <c r="K22">
-        <v>18.0769082526545</v>
+        <v>18.07690825265448</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.16906484082579</v>
+        <v>29.16906484082585</v>
       </c>
       <c r="C23">
-        <v>16.8324614208268</v>
+        <v>16.8324614208269</v>
       </c>
       <c r="D23">
-        <v>11.18875561344208</v>
+        <v>11.18875561344219</v>
       </c>
       <c r="E23">
-        <v>15.21840915159501</v>
+        <v>15.21840915159506</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.28775844148412</v>
+        <v>84.28775844148463</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>6.849845221853164</v>
       </c>
       <c r="J23">
-        <v>24.50494329241705</v>
+        <v>24.50494329241715</v>
       </c>
       <c r="K23">
-        <v>17.64011762905875</v>
+        <v>17.64011762905885</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.35668853951375</v>
+        <v>26.35668853951371</v>
       </c>
       <c r="C24">
-        <v>15.13116902270595</v>
+        <v>15.13116902270625</v>
       </c>
       <c r="D24">
-        <v>10.15988897258719</v>
+        <v>10.15988897258722</v>
       </c>
       <c r="E24">
-        <v>13.83930573828209</v>
+        <v>13.83930573828213</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.31011469083583</v>
+        <v>77.31011469083558</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.442807056798755</v>
+        <v>6.442807056798728</v>
       </c>
       <c r="J24">
-        <v>22.13714065692153</v>
+        <v>22.13714065692156</v>
       </c>
       <c r="K24">
-        <v>15.98877779730655</v>
+        <v>15.98877779730659</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.29309083491774</v>
+        <v>23.29309083491781</v>
       </c>
       <c r="C25">
-        <v>13.3035140313085</v>
+        <v>13.30351403130828</v>
       </c>
       <c r="D25">
-        <v>9.110684413111859</v>
+        <v>9.11068441311196</v>
       </c>
       <c r="E25">
-        <v>12.49647793535518</v>
+        <v>12.49647793535519</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.71913682950702</v>
+        <v>69.7191368295066</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.055616287124578</v>
+        <v>6.055616287124573</v>
       </c>
       <c r="J25">
-        <v>19.55905732219395</v>
+        <v>19.5590573221939</v>
       </c>
       <c r="K25">
-        <v>14.17877655004819</v>
+        <v>14.17877655004818</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96717967353772</v>
+        <v>20.96402585528379</v>
       </c>
       <c r="C2">
-        <v>11.93030669865009</v>
+        <v>11.92596686499799</v>
       </c>
       <c r="D2">
-        <v>8.36720762757737</v>
+        <v>8.366773319589871</v>
       </c>
       <c r="E2">
-        <v>11.49736115721274</v>
+        <v>11.49659123417272</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.98835502485043</v>
+        <v>63.23030171436705</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.97575843920214</v>
       </c>
       <c r="I2">
-        <v>5.785138042333879</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.6001460590155</v>
+        <v>5.784752151632733</v>
       </c>
       <c r="K2">
-        <v>12.79557469466255</v>
+        <v>17.59638693448171</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.79421315122334</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.33149452063418</v>
+        <v>19.32930695506659</v>
       </c>
       <c r="C3">
-        <v>10.97022889477947</v>
+        <v>10.9669864473942</v>
       </c>
       <c r="D3">
-        <v>7.854504777042393</v>
+        <v>7.854212114444049</v>
       </c>
       <c r="E3">
-        <v>10.80985401382195</v>
+        <v>10.8092867243006</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.98938955465207</v>
+        <v>59.06171997693653</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.98019969003183</v>
       </c>
       <c r="I3">
-        <v>5.60929686482777</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.22021044695412</v>
+        <v>5.608999986075246</v>
       </c>
       <c r="K3">
-        <v>11.81723719680316</v>
+        <v>16.21745843130457</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11.81625427490854</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.29403720838241</v>
+        <v>18.29237378928619</v>
       </c>
       <c r="C4">
-        <v>10.36302111520144</v>
+        <v>10.36040828337518</v>
       </c>
       <c r="D4">
-        <v>7.534961799798888</v>
+        <v>7.534742763023812</v>
       </c>
       <c r="E4">
-        <v>10.38205443179388</v>
+        <v>10.38159938211091</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.47189616830568</v>
+        <v>56.42757591095278</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.46486166053145</v>
       </c>
       <c r="I4">
-        <v>5.504658728067272</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15.34332813995307</v>
+        <v>5.504414009768654</v>
       </c>
       <c r="K4">
-        <v>11.19387246768988</v>
+        <v>15.34114281578482</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.19309795179028</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86247559311425</v>
+        <v>17.86101050131034</v>
       </c>
       <c r="C5">
-        <v>10.11071769933203</v>
+        <v>10.10835244571946</v>
       </c>
       <c r="D5">
-        <v>7.403551438683835</v>
+        <v>7.403359611637252</v>
       </c>
       <c r="E5">
-        <v>10.20629068277218</v>
+        <v>10.20587907711398</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.42993163521088</v>
+        <v>55.3347761818529</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.42379876262785</v>
       </c>
       <c r="I5">
-        <v>5.462817387267031</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.97807212129874</v>
+        <v>5.462593543040074</v>
       </c>
       <c r="K5">
-        <v>10.93383129049041</v>
+        <v>14.97610689488605</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.93313678439891</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.79027275105629</v>
+        <v>17.78883972023122</v>
       </c>
       <c r="C6">
-        <v>10.06851839711818</v>
+        <v>10.06619376454586</v>
       </c>
       <c r="D6">
-        <v>7.381659589816435</v>
+        <v>7.38147212654007</v>
       </c>
       <c r="E6">
-        <v>10.17701976214117</v>
+        <v>10.17661525151111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.25593647368624</v>
+        <v>55.15213591095864</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>56.24995492555897</v>
       </c>
       <c r="I6">
-        <v>5.455917046831072</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.91693058788189</v>
+        <v>5.455696651818553</v>
       </c>
       <c r="K6">
-        <v>10.89027983623874</v>
+        <v>14.91500130862749</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.889598347625</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.28825313875267</v>
+        <v>18.28659245380454</v>
       </c>
       <c r="C7">
-        <v>10.359638645857</v>
+        <v>10.35702918688004</v>
       </c>
       <c r="D7">
-        <v>7.533194356115835</v>
+        <v>7.532975696949832</v>
       </c>
       <c r="E7">
-        <v>10.37968978174072</v>
+        <v>10.37923532633916</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.45790929615627</v>
+        <v>56.41291702705097</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.45088684461399</v>
       </c>
       <c r="I7">
-        <v>5.504091246019217</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>15.33843481907582</v>
+        <v>5.503846810496866</v>
       </c>
       <c r="K7">
-        <v>11.19039020631912</v>
+        <v>15.33625250457013</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.18961678803567</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40976805431198</v>
+        <v>20.40696321837988</v>
       </c>
       <c r="C8">
-        <v>11.60268657303514</v>
+        <v>11.59873570123589</v>
       </c>
       <c r="D8">
-        <v>8.191395508353626</v>
+        <v>8.191013186943854</v>
       </c>
       <c r="E8">
-        <v>11.26146062726683</v>
+        <v>11.26076361125091</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.62203973344099</v>
+        <v>61.80800869235592</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.61060923133551</v>
       </c>
       <c r="I8">
-        <v>5.723790847246153</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>17.13017824170592</v>
+        <v>5.723436331669885</v>
       </c>
       <c r="K8">
-        <v>12.46274366570442</v>
+        <v>17.1267785526348</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.46151842824869</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33349833651036</v>
+        <v>24.32776698951296</v>
       </c>
       <c r="C9">
-        <v>13.92152575318178</v>
+        <v>13.9144698507444</v>
       </c>
       <c r="D9">
-        <v>9.447379209890869</v>
+        <v>9.446536523538981</v>
       </c>
       <c r="E9">
-        <v>12.94969711122493</v>
+        <v>12.94838280795244</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.29357752190589</v>
+        <v>71.83952428789912</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.27362459134177</v>
       </c>
       <c r="I9">
-        <v>6.183492445174039</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>20.43465799479745</v>
+        <v>6.182887321031407</v>
       </c>
       <c r="K9">
-        <v>14.79486541784628</v>
+        <v>20.42833142554692</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.79249567783692</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.11978989776886</v>
+        <v>27.11122134138698</v>
       </c>
       <c r="C10">
-        <v>15.5903790160675</v>
+        <v>15.58051505317875</v>
       </c>
       <c r="D10">
-        <v>10.44020868189118</v>
+        <v>10.4387045690059</v>
       </c>
       <c r="E10">
-        <v>14.19793809504995</v>
+        <v>14.19619620019003</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.20382447016615</v>
+        <v>78.96536148889932</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>79.1770128922679</v>
       </c>
       <c r="I10">
-        <v>6.543918174292706</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>22.77938626328764</v>
+        <v>6.543077748251909</v>
       </c>
       <c r="K10">
-        <v>16.43776403385842</v>
+        <v>22.7703277188495</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>16.43426363725815</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.38119523432762</v>
+        <v>28.37109010117044</v>
       </c>
       <c r="C11">
-        <v>16.35333206552538</v>
+        <v>16.3419946117567</v>
       </c>
       <c r="D11">
-        <v>10.90170905585195</v>
+        <v>10.89991080867199</v>
       </c>
       <c r="E11">
-        <v>14.82702096574561</v>
+        <v>14.82492548267861</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.33383131182063</v>
+        <v>82.18430887146614</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>82.30355419614654</v>
       </c>
       <c r="I11">
-        <v>6.714609235978908</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>23.84135142669223</v>
+        <v>6.71363977988694</v>
       </c>
       <c r="K11">
-        <v>17.178427285346</v>
+        <v>23.83083561271703</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>17.17430284141541</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.85965562780559</v>
+        <v>28.84892091616975</v>
       </c>
       <c r="C12">
-        <v>16.64405413585439</v>
+        <v>16.63212026068206</v>
       </c>
       <c r="D12">
-        <v>11.07613975574071</v>
+        <v>11.07421874499947</v>
       </c>
       <c r="E12">
-        <v>15.06484673304545</v>
+        <v>15.06260268655826</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.52056489998725</v>
+        <v>83.40352269049738</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>83.48889939966071</v>
       </c>
       <c r="I12">
-        <v>6.788215578438694</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>24.24430884785165</v>
+        <v>6.787915395080864</v>
       </c>
       <c r="K12">
-        <v>17.45888773388502</v>
+        <v>24.23319920106205</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>17.45450519567105</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.75654357283259</v>
+        <v>28.74594682488579</v>
       </c>
       <c r="C13">
-        <v>16.58133752257864</v>
+        <v>16.5695340138106</v>
       </c>
       <c r="D13">
-        <v>11.038577721341</v>
+        <v>11.03668372043462</v>
       </c>
       <c r="E13">
-        <v>15.01363042757067</v>
+        <v>15.01141911407388</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.26484942334864</v>
+        <v>83.14086359212938</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>83.23348684788674</v>
       </c>
       <c r="I13">
-        <v>6.767669904808509</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>24.15746041492404</v>
+        <v>6.767379714856962</v>
       </c>
       <c r="K13">
-        <v>17.39846814487972</v>
+        <v>24.1464807542919</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>17.3941422832063</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.420531292584</v>
+        <v>28.41037540825394</v>
       </c>
       <c r="C14">
-        <v>16.37720519529259</v>
+        <v>16.36581951693729</v>
       </c>
       <c r="D14">
-        <v>10.91606265960013</v>
+        <v>10.91425456335663</v>
       </c>
       <c r="E14">
-        <v>14.84659003785437</v>
+        <v>14.84448265624351</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.4314118379818</v>
+        <v>82.28458496855342</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>82.40102221000868</v>
       </c>
       <c r="I14">
-        <v>6.719999347031294</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>23.87447667896506</v>
+        <v>6.719025596241901</v>
       </c>
       <c r="K14">
-        <v>17.20149481100862</v>
+        <v>23.86391293134277</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>17.19734961324854</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.21487498576534</v>
+        <v>28.20498248014465</v>
       </c>
       <c r="C15">
-        <v>16.25244724673765</v>
+        <v>16.241312124293</v>
       </c>
       <c r="D15">
-        <v>10.84099373056454</v>
+        <v>10.83923665602373</v>
       </c>
       <c r="E15">
-        <v>14.74424668244518</v>
+        <v>14.74220090008399</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.92121761975221</v>
+        <v>81.76024704433321</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>81.89141309540075</v>
       </c>
       <c r="I15">
-        <v>6.691862395881251</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>23.70129803135627</v>
+        <v>6.690910908130529</v>
       </c>
       <c r="K15">
-        <v>17.08087392412466</v>
+        <v>23.69098316812991</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>17.07683633204602</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.03736401601683</v>
+        <v>27.02888997913877</v>
       </c>
       <c r="C16">
-        <v>15.54069484294615</v>
+        <v>15.53092243860598</v>
       </c>
       <c r="D16">
-        <v>10.40997079937201</v>
+        <v>10.40848451489552</v>
       </c>
       <c r="E16">
-        <v>14.15672681593174</v>
+        <v>14.15500623821244</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.99926792848548</v>
+        <v>78.7548185003261</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>78.97267383320825</v>
       </c>
       <c r="I16">
-        <v>6.532915727448187</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>22.71000859083814</v>
+        <v>6.532083182617074</v>
       </c>
       <c r="K16">
-        <v>16.38930081497952</v>
+        <v>22.70104010606254</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>16.38583853232788</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.31449053881891</v>
+        <v>26.30681629621033</v>
       </c>
       <c r="C17">
-        <v>15.10582506875485</v>
+        <v>15.09683224441657</v>
       </c>
       <c r="D17">
-        <v>10.14436332577414</v>
+        <v>10.143026616513</v>
       </c>
       <c r="E17">
-        <v>13.8206581213001</v>
+        <v>13.81891784775452</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.20540671349561</v>
+        <v>76.90748875012982</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.18067760319869</v>
       </c>
       <c r="I17">
-        <v>6.437265843184678</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>22.10162886406767</v>
+        <v>6.436499790586929</v>
       </c>
       <c r="K17">
-        <v>15.963929115419</v>
+        <v>22.09342469697066</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15.96078807932093</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89801702278777</v>
+        <v>25.89078060811627</v>
       </c>
       <c r="C18">
-        <v>14.85596336422817</v>
+        <v>14.8474012628576</v>
       </c>
       <c r="D18">
-        <v>9.990995972225939</v>
+        <v>9.989740148340351</v>
       </c>
       <c r="E18">
-        <v>13.63680706681417</v>
+        <v>13.63516417312156</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.17209912727307</v>
+        <v>75.84256141504831</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.14841218908259</v>
       </c>
       <c r="I18">
-        <v>6.382867425951837</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>21.75115783005903</v>
+        <v>6.382137658928396</v>
       </c>
       <c r="K18">
-        <v>15.71856687192751</v>
+        <v>21.74337394922704</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15.71560074752223</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7568429647974</v>
+        <v>25.74975128372845</v>
       </c>
       <c r="C19">
-        <v>14.77137656810938</v>
+        <v>14.76295752139686</v>
       </c>
       <c r="D19">
-        <v>9.938952074966679</v>
+        <v>9.937722830630486</v>
       </c>
       <c r="E19">
-        <v>13.57456833084424</v>
+        <v>13.57295744752899</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.82188899616553</v>
+        <v>75.48149310836297</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>75.79855033810169</v>
       </c>
       <c r="I19">
-        <v>6.364549441938788</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>21.63236129656432</v>
+        <v>6.363831658661947</v>
       </c>
       <c r="K19">
-        <v>15.63534617874307</v>
+        <v>21.62471667340959</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15.63243773008577</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.39150300117301</v>
+        <v>26.38374599077462</v>
       </c>
       <c r="C20">
-        <v>15.1520822926984</v>
+        <v>15.14300837206502</v>
       </c>
       <c r="D20">
-        <v>10.1726961138461</v>
+        <v>10.1713440336398</v>
       </c>
       <c r="E20">
-        <v>13.85469311853995</v>
+        <v>13.85293434342748</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.39650276675725</v>
+        <v>77.10436541988315</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>77.37157844599206</v>
       </c>
       <c r="I20">
-        <v>6.447382729433092</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>22.16643902896926</v>
+        <v>6.44660980988435</v>
       </c>
       <c r="K20">
-        <v>16.00927697018843</v>
+        <v>22.15815556722438</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>16.006102793651</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.51918903216898</v>
+        <v>28.50890507344069</v>
       </c>
       <c r="C21">
-        <v>16.43710288823879</v>
+        <v>16.42559562775635</v>
       </c>
       <c r="D21">
-        <v>10.95205234821721</v>
+        <v>10.95021936012786</v>
       </c>
       <c r="E21">
-        <v>14.89565773154817</v>
+        <v>14.89352026230777</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.67614033256049</v>
+        <v>82.53605409678244</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>82.64546725038269</v>
       </c>
       <c r="I21">
-        <v>6.733535332776743</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>23.95755987486082</v>
+        <v>6.732550733683965</v>
       </c>
       <c r="K21">
-        <v>17.25934212028694</v>
+        <v>23.94687521414729</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>17.25514450843551</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.91553482268689</v>
+        <v>29.90331144708233</v>
       </c>
       <c r="C22">
-        <v>17.28834914122708</v>
+        <v>17.27501944274845</v>
       </c>
       <c r="D22">
-        <v>11.45984476570892</v>
+        <v>11.45762859981509</v>
       </c>
       <c r="E22">
-        <v>15.58812476777562</v>
+        <v>15.58552140651945</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.13767404671032</v>
+        <v>86.09002071671993</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>86.1027800088366</v>
       </c>
       <c r="I22">
-        <v>6.998388019571957</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>25.133926123394</v>
+        <v>6.997975625037095</v>
       </c>
       <c r="K22">
-        <v>18.07690825265448</v>
+        <v>25.12141853560082</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>18.07190997961837</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.16906484082585</v>
+        <v>29.15790841572271</v>
       </c>
       <c r="C23">
-        <v>16.8324614208269</v>
+        <v>16.82013015841276</v>
       </c>
       <c r="D23">
-        <v>11.18875561344219</v>
+        <v>11.18675167330784</v>
       </c>
       <c r="E23">
-        <v>15.21840915159506</v>
+        <v>15.21606444371706</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.28775844148463</v>
+        <v>84.19137021981099</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>84.25517122120058</v>
       </c>
       <c r="I23">
-        <v>6.849845221853164</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>24.50494329241715</v>
+        <v>6.84951405162321</v>
       </c>
       <c r="K23">
-        <v>17.64011762905885</v>
+        <v>24.4934367931132</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>17.63556143735339</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.35668853951371</v>
+        <v>26.34896901605141</v>
       </c>
       <c r="C24">
-        <v>15.13116902270625</v>
+        <v>15.12213181940271</v>
       </c>
       <c r="D24">
-        <v>10.15988897258722</v>
+        <v>10.1585438572757</v>
       </c>
       <c r="E24">
-        <v>13.83930573828213</v>
+        <v>13.8375553465033</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.31011469083558</v>
+        <v>77.01536667679845</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>77.28527871642589</v>
       </c>
       <c r="I24">
-        <v>6.442807056798728</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>22.13714065692156</v>
+        <v>6.442037247748384</v>
       </c>
       <c r="K24">
-        <v>15.98877779730659</v>
+        <v>22.12889310309692</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15.98561863359937</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.29309083491781</v>
+        <v>23.28824697982645</v>
       </c>
       <c r="C25">
-        <v>13.30351403130828</v>
+        <v>13.29736928489806</v>
       </c>
       <c r="D25">
-        <v>9.11068441311196</v>
+        <v>9.109986765248511</v>
       </c>
       <c r="E25">
-        <v>12.49647793535519</v>
+        <v>12.49535321025165</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.7191368295066</v>
+        <v>69.17681005968979</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.70153634945198</v>
       </c>
       <c r="I25">
-        <v>6.055616287124573</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>19.5590573221939</v>
+        <v>6.055085185752533</v>
       </c>
       <c r="K25">
-        <v>14.17877655004818</v>
+        <v>19.55360180078318</v>
       </c>
       <c r="L25">
+        <v>14.17675528996128</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96402585528379</v>
+        <v>35.66329991317014</v>
       </c>
       <c r="C2">
-        <v>11.92596686499799</v>
+        <v>21.10685969792387</v>
       </c>
       <c r="D2">
-        <v>8.366773319589871</v>
+        <v>6.502891372181439</v>
       </c>
       <c r="E2">
-        <v>11.49659123417272</v>
+        <v>5.842400641411722</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.23030171436705</v>
+        <v>2.18059345852218</v>
       </c>
       <c r="H2">
-        <v>63.97575843920214</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.784752151632733</v>
+        <v>5.03493955216498</v>
       </c>
       <c r="K2">
-        <v>17.59638693448171</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.79421315122334</v>
+        <v>8.951524343888847</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.03814217128179</v>
+      </c>
+      <c r="N2">
+        <v>23.22636549142037</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.32930695506659</v>
+        <v>33.92956257310058</v>
       </c>
       <c r="C3">
-        <v>10.9669864473942</v>
+        <v>19.78418065207777</v>
       </c>
       <c r="D3">
-        <v>7.854212114444049</v>
+        <v>6.477881437711404</v>
       </c>
       <c r="E3">
-        <v>10.8092867243006</v>
+        <v>5.770362351043305</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.06171997693653</v>
+        <v>2.200365964897832</v>
       </c>
       <c r="H3">
-        <v>59.98019969003183</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.608999986075246</v>
+        <v>4.850511351850741</v>
       </c>
       <c r="K3">
-        <v>16.21745843130457</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11.81625427490854</v>
+        <v>8.862754503347654</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>20.3801671572882</v>
+      </c>
+      <c r="N3">
+        <v>22.96818301947769</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.29237378928619</v>
+        <v>32.86942196309072</v>
       </c>
       <c r="C4">
-        <v>10.36040828337518</v>
+        <v>18.95997634575361</v>
       </c>
       <c r="D4">
-        <v>7.534742763023812</v>
+        <v>6.46673923198778</v>
       </c>
       <c r="E4">
-        <v>10.38159938211091</v>
+        <v>5.726911075910378</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.42757591095278</v>
+        <v>2.212623445934398</v>
       </c>
       <c r="H4">
-        <v>57.46486166053145</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.504414009768654</v>
+        <v>4.736002663676553</v>
       </c>
       <c r="K4">
-        <v>15.34114281578482</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>11.19309795179028</v>
+        <v>8.815027616640023</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>19.99004784997337</v>
+      </c>
+      <c r="N4">
+        <v>22.81582507736323</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86101050131034</v>
+        <v>32.43858082493708</v>
       </c>
       <c r="C5">
-        <v>10.10835244571946</v>
+        <v>18.62105748721866</v>
       </c>
       <c r="D5">
-        <v>7.403359611637252</v>
+        <v>6.46320471924757</v>
       </c>
       <c r="E5">
-        <v>10.20587907711398</v>
+        <v>5.709355484002799</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.3347761818529</v>
+        <v>2.217657950234368</v>
       </c>
       <c r="H5">
-        <v>56.42379876262785</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.462593543040074</v>
+        <v>4.688983577482295</v>
       </c>
       <c r="K5">
-        <v>14.97610689488605</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>10.93313678439891</v>
+        <v>8.797191420588378</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19.83446075342542</v>
+      </c>
+      <c r="N5">
+        <v>22.75517231828404</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.78883972023122</v>
+        <v>32.3671156265997</v>
       </c>
       <c r="C6">
-        <v>10.06619376454586</v>
+        <v>18.56459807558779</v>
       </c>
       <c r="D6">
-        <v>7.38147212654007</v>
+        <v>6.462677101013312</v>
       </c>
       <c r="E6">
-        <v>10.17661525151111</v>
+        <v>5.70644831863282</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.15213591095864</v>
+        <v>2.21849658029631</v>
       </c>
       <c r="H6">
-        <v>56.24995492555897</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.455696651818553</v>
+        <v>4.681153725904855</v>
       </c>
       <c r="K6">
-        <v>14.91500130862749</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>10.889598347625</v>
+        <v>8.794324621466881</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19.80882802916388</v>
+      </c>
+      <c r="N6">
+        <v>22.74518445573087</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.28659245380454</v>
+        <v>32.86360653781508</v>
       </c>
       <c r="C7">
-        <v>10.35702918688004</v>
+        <v>18.95541784122253</v>
       </c>
       <c r="D7">
-        <v>7.532975696949832</v>
+        <v>6.466687558272223</v>
       </c>
       <c r="E7">
-        <v>10.37923532633916</v>
+        <v>5.726673758150738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.41291702705097</v>
+        <v>2.212691170801553</v>
       </c>
       <c r="H7">
-        <v>57.45088684461399</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.503846810496866</v>
+        <v>4.735370029647398</v>
       </c>
       <c r="K7">
-        <v>15.33625250457013</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>11.18961678803567</v>
+        <v>8.814780656066562</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>19.98793593245464</v>
+      </c>
+      <c r="N7">
+        <v>22.81500142943787</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40696321837988</v>
+        <v>35.06459704559061</v>
       </c>
       <c r="C8">
-        <v>11.59873570123589</v>
+        <v>20.65325941878061</v>
       </c>
       <c r="D8">
-        <v>8.191013186943854</v>
+        <v>6.493359428756238</v>
       </c>
       <c r="E8">
-        <v>11.26076361125091</v>
+        <v>5.817370585498139</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.80800869235592</v>
+        <v>2.18739318405829</v>
       </c>
       <c r="H8">
-        <v>62.61060923133551</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.723436331669885</v>
+        <v>4.97158642812184</v>
       </c>
       <c r="K8">
-        <v>17.1267785526348</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>12.46151842824869</v>
+        <v>8.919451878182201</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>20.80831936510036</v>
+      </c>
+      <c r="N8">
+        <v>23.13598942325232</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32776698951296</v>
+        <v>39.42094248929918</v>
       </c>
       <c r="C9">
-        <v>13.9144698507444</v>
+        <v>23.89458988271404</v>
       </c>
       <c r="D9">
-        <v>9.446536523538981</v>
+        <v>6.581834883035688</v>
       </c>
       <c r="E9">
-        <v>12.94838280795244</v>
+        <v>6.003869149967509</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>71.83952428789912</v>
+        <v>2.138177784009735</v>
       </c>
       <c r="H9">
-        <v>72.27362459134177</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.182887321031407</v>
+        <v>5.427085951016683</v>
       </c>
       <c r="K9">
-        <v>20.42833142554692</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>14.79249567783692</v>
+        <v>9.183171375734718</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>22.53428127834059</v>
+      </c>
+      <c r="N9">
+        <v>23.8205714179137</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.11122134138698</v>
+        <v>42.66940425641765</v>
       </c>
       <c r="C10">
-        <v>15.58051505317875</v>
+        <v>26.24459988179032</v>
       </c>
       <c r="D10">
-        <v>10.4387045690059</v>
+        <v>6.673356898497067</v>
       </c>
       <c r="E10">
-        <v>14.19619620019003</v>
+        <v>6.150428838395667</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>78.96536148889932</v>
+        <v>2.101346230536574</v>
       </c>
       <c r="H10">
-        <v>79.1770128922679</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.543077748251909</v>
+        <v>5.761639042389906</v>
       </c>
       <c r="K10">
-        <v>22.7703277188495</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>16.43426363725815</v>
+        <v>9.420280586870181</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>23.88914236769392</v>
+      </c>
+      <c r="N10">
+        <v>24.36773567757891</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.37109010117044</v>
+        <v>44.16829270659826</v>
       </c>
       <c r="C11">
-        <v>16.3419946117567</v>
+        <v>27.32101653398482</v>
       </c>
       <c r="D11">
-        <v>10.89991080867199</v>
+        <v>6.722005496535076</v>
       </c>
       <c r="E11">
-        <v>14.82492548267861</v>
+        <v>6.220466441354635</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>82.18430887146614</v>
+        <v>2.084175405348166</v>
       </c>
       <c r="H11">
-        <v>82.30355419614654</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.71363977988694</v>
+        <v>5.915336577918025</v>
       </c>
       <c r="K11">
-        <v>23.83083561271703</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>17.17430284141541</v>
+        <v>9.539770415693823</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24.52994908068605</v>
+      </c>
+      <c r="N11">
+        <v>24.62939004551516</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.84892091616975</v>
+        <v>44.74031728213355</v>
       </c>
       <c r="C12">
-        <v>16.63212026068206</v>
+        <v>27.7458558769811</v>
       </c>
       <c r="D12">
-        <v>11.07421874499947</v>
+        <v>6.74156955417536</v>
       </c>
       <c r="E12">
-        <v>15.06260268655826</v>
+        <v>6.247616875465163</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>83.40352269049738</v>
+        <v>2.077583917132887</v>
       </c>
       <c r="H12">
-        <v>83.48889939966071</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.787915395080864</v>
+        <v>5.973931933873362</v>
       </c>
       <c r="K12">
-        <v>24.23319920106205</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>17.45450519567105</v>
+        <v>9.586929552201038</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24.77681551313708</v>
+      </c>
+      <c r="N12">
+        <v>24.73065030549183</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.74594682488579</v>
+        <v>44.61689705109632</v>
       </c>
       <c r="C13">
-        <v>16.5695340138106</v>
+        <v>27.6543147876154</v>
       </c>
       <c r="D13">
-        <v>11.03668372043462</v>
+        <v>6.737302839450147</v>
       </c>
       <c r="E13">
-        <v>15.01141911407388</v>
+        <v>6.241738845774099</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>83.14086359212938</v>
+        <v>2.079008033739363</v>
       </c>
       <c r="H13">
-        <v>83.23348684788674</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.767379714856962</v>
+        <v>5.961291491412769</v>
       </c>
       <c r="K13">
-        <v>24.1464807542919</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>17.3941422832063</v>
+        <v>9.576683537929261</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24.72344780048919</v>
+      </c>
+      <c r="N13">
+        <v>24.70873878326948</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.41037540825394</v>
+        <v>44.21525501764832</v>
       </c>
       <c r="C14">
-        <v>16.36581951693729</v>
+        <v>27.355950488475</v>
       </c>
       <c r="D14">
-        <v>10.91425456335663</v>
+        <v>6.723591284051182</v>
       </c>
       <c r="E14">
-        <v>14.84448265624351</v>
+        <v>6.222686552908121</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>82.28458496855342</v>
+        <v>2.08363510454598</v>
       </c>
       <c r="H14">
-        <v>82.40102221000868</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.719025596241901</v>
+        <v>5.920148167672806</v>
       </c>
       <c r="K14">
-        <v>23.86391293134277</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>17.19734961324854</v>
+        <v>9.543610343899314</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24.55016983829788</v>
+      </c>
+      <c r="N14">
+        <v>24.63767485144842</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.20498248014465</v>
+        <v>43.96986405136341</v>
       </c>
       <c r="C15">
-        <v>16.241312124293</v>
+        <v>27.17431827588993</v>
       </c>
       <c r="D15">
-        <v>10.83923665602373</v>
+        <v>6.715345746439186</v>
       </c>
       <c r="E15">
-        <v>14.74220090008399</v>
+        <v>6.211103314362613</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.76024704433321</v>
+        <v>2.086456691313103</v>
       </c>
       <c r="H15">
-        <v>81.89141309540075</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.690910908130529</v>
+        <v>5.89500406496834</v>
       </c>
       <c r="K15">
-        <v>23.69098316812991</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>17.07683633204602</v>
+        <v>9.523609027577429</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24.44460432781987</v>
+      </c>
+      <c r="N15">
+        <v>24.59444146397655</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.02888997913877</v>
+        <v>42.5719815082422</v>
       </c>
       <c r="C16">
-        <v>15.53092243860598</v>
+        <v>26.17472686616333</v>
       </c>
       <c r="D16">
-        <v>10.40848451489552</v>
+        <v>6.670329466614415</v>
       </c>
       <c r="E16">
-        <v>14.15500623821244</v>
+        <v>6.145930965662119</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>78.7548185003261</v>
+        <v>2.102457659647952</v>
       </c>
       <c r="H16">
-        <v>78.97267383320825</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.532083182617074</v>
+        <v>5.751638843989868</v>
       </c>
       <c r="K16">
-        <v>22.70104010606254</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>16.38583853232788</v>
+        <v>9.412724744984473</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>23.84781029621977</v>
+      </c>
+      <c r="N16">
+        <v>24.35091993498577</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.30681629621033</v>
+        <v>41.72068165099992</v>
       </c>
       <c r="C17">
-        <v>15.09683224441657</v>
+        <v>25.56271336111197</v>
       </c>
       <c r="D17">
-        <v>10.143026616513</v>
+        <v>6.644595880952085</v>
       </c>
       <c r="E17">
-        <v>13.81891784775452</v>
+        <v>6.106903575933989</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.90748875012982</v>
+        <v>2.112148423833075</v>
       </c>
       <c r="H17">
-        <v>77.18067760319869</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.436499790586929</v>
+        <v>5.66418548726275</v>
       </c>
       <c r="K17">
-        <v>22.09342469697066</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>15.96078807932093</v>
+        <v>9.347831582815679</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23.488385833725</v>
+      </c>
+      <c r="N17">
+        <v>24.20501104430165</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89078060811627</v>
+        <v>41.23291874580934</v>
       </c>
       <c r="C18">
-        <v>14.8474012628576</v>
+        <v>25.21081330847051</v>
       </c>
       <c r="D18">
-        <v>9.989740148340351</v>
+        <v>6.630445413760941</v>
       </c>
       <c r="E18">
-        <v>13.63516417312156</v>
+        <v>6.084762416360928</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.84256141504831</v>
+        <v>2.117685267529671</v>
       </c>
       <c r="H18">
-        <v>76.14841218908259</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.382137658928396</v>
+        <v>5.614013411475623</v>
       </c>
       <c r="K18">
-        <v>21.74337394922704</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>15.71560074752223</v>
+        <v>9.311584055416207</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>23.28390542633322</v>
+      </c>
+      <c r="N18">
+        <v>24.12226293418336</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.74975128372845</v>
+        <v>41.06805929411861</v>
       </c>
       <c r="C19">
-        <v>14.76295752139686</v>
+        <v>25.09165786457167</v>
       </c>
       <c r="D19">
-        <v>9.937722830630486</v>
+        <v>6.625762495705033</v>
       </c>
       <c r="E19">
-        <v>13.57295744752899</v>
+        <v>6.077314611056693</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.48149310836297</v>
+        <v>2.119554371706917</v>
       </c>
       <c r="H19">
-        <v>75.79855033810169</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.363831658661947</v>
+        <v>5.597043540561806</v>
       </c>
       <c r="K19">
-        <v>21.62471667340959</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>15.63243773008577</v>
+        <v>9.299489919128142</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>23.2150410946775</v>
+      </c>
+      <c r="N19">
+        <v>24.0944384898718</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.38374599077462</v>
+        <v>41.81110065342549</v>
       </c>
       <c r="C20">
-        <v>15.14300837206502</v>
+        <v>25.62784466450038</v>
       </c>
       <c r="D20">
-        <v>10.1713440336398</v>
+        <v>6.647267037891995</v>
       </c>
       <c r="E20">
-        <v>13.85293434342748</v>
+        <v>6.111025473764637</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>77.10436541988315</v>
+        <v>2.11112084813647</v>
       </c>
       <c r="H20">
-        <v>77.37157844599206</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.44660980988435</v>
+        <v>5.673480597970415</v>
       </c>
       <c r="K20">
-        <v>22.15815556722438</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>16.006102793651</v>
+        <v>9.354626525474398</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>23.52640993988192</v>
+      </c>
+      <c r="N20">
+        <v>24.22041948339519</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.50890507344069</v>
+        <v>44.33309327101633</v>
       </c>
       <c r="C21">
-        <v>16.42559562775635</v>
+        <v>27.44356286703237</v>
       </c>
       <c r="D21">
-        <v>10.95021936012786</v>
+        <v>6.727586493142286</v>
       </c>
       <c r="E21">
-        <v>14.89352026230777</v>
+        <v>6.228264259084085</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>82.53605409678244</v>
+        <v>2.082278716959246</v>
       </c>
       <c r="H21">
-        <v>82.64546725038269</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.732550733683965</v>
+        <v>5.932220610654046</v>
       </c>
       <c r="K21">
-        <v>23.94687521414729</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>17.25514450843551</v>
+        <v>9.553270675406013</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>24.60094494898863</v>
+      </c>
+      <c r="N21">
+        <v>24.65848575819141</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.90331144708233</v>
+        <v>46.00821080126986</v>
       </c>
       <c r="C22">
-        <v>17.27501944274845</v>
+        <v>28.68260607611442</v>
       </c>
       <c r="D22">
-        <v>11.45762859981509</v>
+        <v>6.786822246078951</v>
       </c>
       <c r="E22">
-        <v>15.58552140651945</v>
+        <v>6.308650069120625</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>86.09002071671993</v>
+        <v>2.06288869949976</v>
       </c>
       <c r="H22">
-        <v>86.1027800088366</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.997975625037095</v>
+        <v>6.103739134383531</v>
       </c>
       <c r="K22">
-        <v>25.12141853560082</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>18.07190997961837</v>
+        <v>9.694393528458598</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25.32824196082457</v>
+      </c>
+      <c r="N22">
+        <v>24.95771108113743</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.15790841572271</v>
+        <v>45.11111403538884</v>
       </c>
       <c r="C23">
-        <v>16.82013015841276</v>
+        <v>28.02048528149197</v>
       </c>
       <c r="D23">
-        <v>11.18675167330784</v>
+        <v>6.754537375810665</v>
       </c>
       <c r="E23">
-        <v>15.21606444371706</v>
+        <v>6.265343350182741</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.19137021981099</v>
+        <v>2.073298779169475</v>
       </c>
       <c r="H23">
-        <v>84.25517122120058</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.84951405162321</v>
+        <v>6.011902236290093</v>
       </c>
       <c r="K23">
-        <v>24.4934367931132</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>17.63556143735339</v>
+        <v>9.617944019587375</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>24.93748703740228</v>
+      </c>
+      <c r="N23">
+        <v>24.79668717722593</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.34896901605141</v>
+        <v>41.77021714734088</v>
       </c>
       <c r="C24">
-        <v>15.12213181940271</v>
+        <v>25.59839902047053</v>
       </c>
       <c r="D24">
-        <v>10.1585438572757</v>
+        <v>6.646057411189135</v>
       </c>
       <c r="E24">
-        <v>13.8375553465033</v>
+        <v>6.109161051489459</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.01536667679845</v>
+        <v>2.111585520468798</v>
       </c>
       <c r="H24">
-        <v>77.28527871642589</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.442037247748384</v>
+        <v>5.669277960774433</v>
       </c>
       <c r="K24">
-        <v>22.12889310309692</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>15.98561863359937</v>
+        <v>9.351551246124084</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>23.50921256991667</v>
+      </c>
+      <c r="N24">
+        <v>24.21344981176627</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.28824697982645</v>
+        <v>38.23659417317747</v>
       </c>
       <c r="C25">
-        <v>13.29736928489806</v>
+        <v>23.02549196218082</v>
       </c>
       <c r="D25">
-        <v>9.109986765248511</v>
+        <v>6.5536089061867</v>
       </c>
       <c r="E25">
-        <v>12.49535321025165</v>
+        <v>5.952104461843896</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.17681005968979</v>
+        <v>2.15153331815783</v>
       </c>
       <c r="H25">
-        <v>69.70153634945198</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.055085185752533</v>
+        <v>5.304291740264319</v>
       </c>
       <c r="K25">
-        <v>19.55360180078318</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>14.17675528996128</v>
+        <v>9.104851431000109</v>
       </c>
       <c r="M25">
+        <v>22.05356267100219</v>
+      </c>
+      <c r="N25">
+        <v>23.62850243063838</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35.66329991317014</v>
+        <v>21.11555493389764</v>
       </c>
       <c r="C2">
-        <v>21.10685969792387</v>
+        <v>14.76064688553168</v>
       </c>
       <c r="D2">
-        <v>6.502891372181439</v>
+        <v>7.23635724846902</v>
       </c>
       <c r="E2">
-        <v>5.842400641411722</v>
+        <v>11.40022701059971</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.18059345852218</v>
+        <v>20.8897836609042</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.630429449319558</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.03493955216498</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.951524343888847</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>21.03814217128179</v>
+        <v>18.21782220448841</v>
       </c>
       <c r="N2">
-        <v>23.22636549142037</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.63233031003851</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.92956257310058</v>
+        <v>19.76738333422133</v>
       </c>
       <c r="C3">
-        <v>19.78418065207777</v>
+        <v>13.96182003275707</v>
       </c>
       <c r="D3">
-        <v>6.477881437711404</v>
+        <v>6.734288129661625</v>
       </c>
       <c r="E3">
-        <v>5.770362351043305</v>
+        <v>10.82671187737255</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.200365964897832</v>
+        <v>20.0032385837668</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.648233461077074</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.850511351850741</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.862754503347654</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>20.3801671572882</v>
+        <v>17.04873655979243</v>
       </c>
       <c r="N3">
-        <v>22.96818301947769</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.4576829111779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.86942196309072</v>
+        <v>18.89269019773352</v>
       </c>
       <c r="C4">
-        <v>18.95997634575361</v>
+        <v>13.44810349025729</v>
       </c>
       <c r="D4">
-        <v>6.46673923198778</v>
+        <v>6.408914056994158</v>
       </c>
       <c r="E4">
-        <v>5.726911075910378</v>
+        <v>10.47676920946298</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.212623445934398</v>
+        <v>19.48195639935233</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.668345878327731</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.736002663676553</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.815027616640023</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>19.99004784997337</v>
+        <v>16.29261568432</v>
       </c>
       <c r="N4">
-        <v>22.81582507736323</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.370016184858</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.43858082493708</v>
+        <v>18.52443532009613</v>
       </c>
       <c r="C5">
-        <v>18.62105748721866</v>
+        <v>13.23303252859971</v>
       </c>
       <c r="D5">
-        <v>6.46320471924757</v>
+        <v>6.271983823543538</v>
       </c>
       <c r="E5">
-        <v>5.709355484002799</v>
+        <v>10.33490279509735</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.217657950234368</v>
+        <v>19.27562542295668</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.678734546817418</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.688983577482295</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.797191420588378</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>19.83446075342542</v>
+        <v>15.97483020808395</v>
       </c>
       <c r="N5">
-        <v>22.75517231828404</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.33905191045155</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.3671156265997</v>
+        <v>18.46257347381552</v>
       </c>
       <c r="C6">
-        <v>18.56459807558779</v>
+        <v>13.1969781902326</v>
       </c>
       <c r="D6">
-        <v>6.462677101013312</v>
+        <v>6.248983604341643</v>
       </c>
       <c r="E6">
-        <v>5.70644831863282</v>
+        <v>10.31139648214476</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.21849658029631</v>
+        <v>19.24174091654149</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.680588648333007</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.681153725904855</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.794324621466881</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>19.80882802916388</v>
+        <v>15.92147817201881</v>
       </c>
       <c r="N6">
-        <v>22.74518445573087</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.33419276062291</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.86360653781508</v>
+        <v>18.88777161036622</v>
       </c>
       <c r="C7">
-        <v>18.95541784122253</v>
+        <v>13.44522598412207</v>
       </c>
       <c r="D7">
-        <v>6.466687558272223</v>
+        <v>6.407084979835285</v>
       </c>
       <c r="E7">
-        <v>5.726673758150738</v>
+        <v>10.47485269685566</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.212691170801553</v>
+        <v>19.47914868218386</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.668477257554886</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.735370029647398</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.814780656066562</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>19.98793593245464</v>
+        <v>16.28836905950831</v>
       </c>
       <c r="N7">
-        <v>22.81500142943787</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.36957954101733</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.06459704559061</v>
+        <v>20.66042789617885</v>
       </c>
       <c r="C8">
-        <v>20.65325941878061</v>
+        <v>14.49009364312663</v>
       </c>
       <c r="D8">
-        <v>6.493359428756238</v>
+        <v>7.066770466689368</v>
       </c>
       <c r="E8">
-        <v>5.817370585498139</v>
+        <v>11.20212549014268</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.18739318405829</v>
+        <v>20.5794970352421</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.634592810499187</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.97158642812184</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.919451878182201</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>20.80831936510036</v>
+        <v>17.82264721277284</v>
       </c>
       <c r="N8">
-        <v>23.13598942325232</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.56796134234406</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>39.42094248929918</v>
+        <v>23.76585703400838</v>
       </c>
       <c r="C9">
-        <v>23.89458988271404</v>
+        <v>16.35107328427691</v>
       </c>
       <c r="D9">
-        <v>6.581834883035688</v>
+        <v>8.226455274230638</v>
       </c>
       <c r="E9">
-        <v>6.003869149967509</v>
+        <v>12.63913675508825</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.138177784009735</v>
+        <v>22.90731652172669</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.646201030832679</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.427085951016683</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.183171375734718</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>22.53428127834059</v>
+        <v>20.52964565872943</v>
       </c>
       <c r="N9">
-        <v>23.8205714179137</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.1182253391471</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42.66940425641765</v>
+        <v>25.82439082928974</v>
       </c>
       <c r="C10">
-        <v>26.24459988179032</v>
+        <v>17.60049495917586</v>
       </c>
       <c r="D10">
-        <v>6.673356898497067</v>
+        <v>8.999311929793034</v>
       </c>
       <c r="E10">
-        <v>6.150428838395667</v>
+        <v>13.88052833071848</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.101346230536574</v>
+        <v>24.7054537621192</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.709422043416055</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.761639042389906</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.420280586870181</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>23.88914236769392</v>
+        <v>22.33853088224329</v>
       </c>
       <c r="N10">
-        <v>24.36773567757891</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.62737495129647</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>44.16829270659826</v>
+        <v>26.71330857608082</v>
       </c>
       <c r="C11">
-        <v>27.32101653398482</v>
+        <v>18.14301231343007</v>
       </c>
       <c r="D11">
-        <v>6.722005496535076</v>
+        <v>9.33428729468873</v>
       </c>
       <c r="E11">
-        <v>6.220466441354635</v>
+        <v>14.46391230682781</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.084175405348166</v>
+        <v>25.53993382268552</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.751558421327977</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.915336577918025</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.539770415693823</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>24.52994908068605</v>
+        <v>23.12347549910908</v>
       </c>
       <c r="N11">
-        <v>24.62939004551516</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.88276809505469</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44.74031728213355</v>
+        <v>27.04316668368097</v>
       </c>
       <c r="C12">
-        <v>27.7458558769811</v>
+        <v>18.34472760229601</v>
       </c>
       <c r="D12">
-        <v>6.74156955417536</v>
+        <v>9.458795759919566</v>
       </c>
       <c r="E12">
-        <v>6.247616875465163</v>
+        <v>14.6825276988935</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.077583917132887</v>
+        <v>25.86262626957725</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.76955812983138</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.973931933873362</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.586929552201038</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>24.77681551313708</v>
+        <v>23.41536464970585</v>
       </c>
       <c r="N12">
-        <v>24.73065030549183</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.98295741089595</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44.61689705109632</v>
+        <v>26.97242497471529</v>
       </c>
       <c r="C13">
-        <v>27.6543147876154</v>
+        <v>18.30145021052956</v>
       </c>
       <c r="D13">
-        <v>6.737302839450147</v>
+        <v>9.432083892883432</v>
       </c>
       <c r="E13">
-        <v>6.241738845774099</v>
+        <v>14.63554507351538</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.079008033739363</v>
+        <v>25.7895170011287</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.765588801332927</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.961291491412769</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.576683537929261</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>24.72344780048919</v>
+        <v>23.35273740591039</v>
       </c>
       <c r="N13">
-        <v>24.70873878326948</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.96122437237049</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>44.21525501764832</v>
+        <v>26.74058112138547</v>
       </c>
       <c r="C14">
-        <v>27.355950488475</v>
+        <v>18.15968218314473</v>
       </c>
       <c r="D14">
-        <v>6.723591284051182</v>
+        <v>9.344577284051486</v>
       </c>
       <c r="E14">
-        <v>6.222686552908121</v>
+        <v>14.48194324110357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.08363510454598</v>
+        <v>25.56606971468125</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.752997634522181</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.920148167672806</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.543610343899314</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>24.55016983829788</v>
+        <v>23.14759604170622</v>
       </c>
       <c r="N14">
-        <v>24.63767485144842</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.89094074121031</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>43.96986405136341</v>
+        <v>26.59769271818769</v>
       </c>
       <c r="C15">
-        <v>27.17431827588993</v>
+        <v>18.07236018952216</v>
       </c>
       <c r="D15">
-        <v>6.715345746439186</v>
+        <v>9.290673757206712</v>
       </c>
       <c r="E15">
-        <v>6.211103314362613</v>
+        <v>14.38756218611989</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.086456691313103</v>
+        <v>25.42948618385016</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.74555482907194</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.89500406496834</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.523609027577429</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>24.44460432781987</v>
+        <v>23.02124720841315</v>
       </c>
       <c r="N15">
-        <v>24.59444146397655</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.84834439907038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>42.5719815082422</v>
+        <v>25.7653481735605</v>
       </c>
       <c r="C16">
-        <v>26.17472686616333</v>
+        <v>17.56451908260406</v>
       </c>
       <c r="D16">
-        <v>6.670329466614415</v>
+        <v>8.977090473303731</v>
       </c>
       <c r="E16">
-        <v>6.145930965662119</v>
+        <v>13.84207396268745</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.102457659647952</v>
+        <v>24.65123564032066</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.706947828985124</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.751638843989868</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.412724744984473</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>23.84781029621977</v>
+        <v>22.2864781360061</v>
       </c>
       <c r="N16">
-        <v>24.35091993498577</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.61116812503857</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>41.72068165099992</v>
+        <v>25.24261320318327</v>
       </c>
       <c r="C17">
-        <v>25.56271336111197</v>
+        <v>17.24634464785996</v>
       </c>
       <c r="D17">
-        <v>6.644595880952085</v>
+        <v>8.780498574813517</v>
       </c>
       <c r="E17">
-        <v>6.106903575933989</v>
+        <v>13.50320286140172</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.112148423833075</v>
+        <v>24.17789924368141</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.686776047486175</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.66418548726275</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.347831582815679</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>23.488385833725</v>
+        <v>21.82607576611715</v>
       </c>
       <c r="N17">
-        <v>24.20501104430165</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.47180357011477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>41.23291874580934</v>
+        <v>24.93747190174575</v>
       </c>
       <c r="C18">
-        <v>25.21081330847051</v>
+        <v>17.06090540989611</v>
       </c>
       <c r="D18">
-        <v>6.630445413760941</v>
+        <v>8.665858547930597</v>
       </c>
       <c r="E18">
-        <v>6.084762416360928</v>
+        <v>13.30670040766315</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.117685267529671</v>
+        <v>23.90720789691559</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.676425840079111</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.614013411475623</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.311584055416207</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>23.28390542633322</v>
+        <v>21.55768790640815</v>
       </c>
       <c r="N18">
-        <v>24.12226293418336</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.39388032661571</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41.06805929411861</v>
+        <v>24.8333849861799</v>
       </c>
       <c r="C19">
-        <v>25.09165786457167</v>
+        <v>16.99770131418451</v>
       </c>
       <c r="D19">
-        <v>6.625762495705033</v>
+        <v>8.62677310231796</v>
       </c>
       <c r="E19">
-        <v>6.077314611056693</v>
+        <v>13.23989117772075</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.119554371706917</v>
+        <v>23.81583000192379</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.673132780385076</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.597043540561806</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.299489919128142</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>23.2150410946775</v>
+        <v>21.46619920388603</v>
       </c>
       <c r="N19">
-        <v>24.0944384898718</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.36787885025209</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41.81110065342549</v>
+        <v>25.2987221524732</v>
       </c>
       <c r="C20">
-        <v>25.62784466450038</v>
+        <v>17.28046683374663</v>
       </c>
       <c r="D20">
-        <v>6.647267037891995</v>
+        <v>8.801587810163808</v>
       </c>
       <c r="E20">
-        <v>6.111025473764637</v>
+        <v>13.53944030868237</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.11112084813647</v>
+        <v>24.22812666596709</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.688792905712074</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.673480597970415</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.354626525474398</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>23.52640993988192</v>
+        <v>21.87545585020794</v>
       </c>
       <c r="N20">
-        <v>24.22041948339519</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.48640733552797</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>44.33309327101633</v>
+        <v>26.80886196911441</v>
       </c>
       <c r="C21">
-        <v>27.44356286703237</v>
+        <v>18.20142395302094</v>
       </c>
       <c r="D21">
-        <v>6.727586493142286</v>
+        <v>9.370343194369116</v>
       </c>
       <c r="E21">
-        <v>6.228264259084085</v>
+        <v>14.52712115742924</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.082278716959246</v>
+        <v>25.63164254056745</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.756639560973687</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.932220610654046</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.553270675406013</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>24.60094494898863</v>
+        <v>23.20799542794012</v>
       </c>
       <c r="N21">
-        <v>24.65848575819141</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.91148995888226</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>46.00821080126986</v>
+        <v>27.75649007730428</v>
       </c>
       <c r="C22">
-        <v>28.68260607611442</v>
+        <v>18.78162087483565</v>
       </c>
       <c r="D22">
-        <v>6.786822246078951</v>
+        <v>9.7284457710953</v>
       </c>
       <c r="E22">
-        <v>6.308650069120625</v>
+        <v>15.15929646619213</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.06288869949976</v>
+        <v>26.62149113273515</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.812946395381511</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.103739134383531</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.694393528458598</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>25.32824196082457</v>
+        <v>24.04774495403139</v>
       </c>
       <c r="N22">
-        <v>24.95771108113743</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.20959592343798</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>45.11111403538884</v>
+        <v>27.25429445987487</v>
       </c>
       <c r="C23">
-        <v>28.02048528149197</v>
+        <v>18.4739434364614</v>
       </c>
       <c r="D23">
-        <v>6.754537375810665</v>
+        <v>9.538548711289661</v>
       </c>
       <c r="E23">
-        <v>6.265343350182741</v>
+        <v>14.82306677187027</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.073298779169475</v>
+        <v>26.0852603698151</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.781760668720085</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.011902236290093</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.617944019587375</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>24.93748703740228</v>
+        <v>23.60236778195931</v>
       </c>
       <c r="N23">
-        <v>24.79668717722593</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.04861793297713</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>41.77021714734088</v>
+        <v>25.27336967385422</v>
       </c>
       <c r="C24">
-        <v>25.59839902047053</v>
+        <v>17.26504803121637</v>
       </c>
       <c r="D24">
-        <v>6.646057411189135</v>
+        <v>8.792058406183404</v>
       </c>
       <c r="E24">
-        <v>6.109161051489459</v>
+        <v>13.52306260339545</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.111585520468798</v>
+        <v>24.2054143625442</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.687877209675579</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.669277960774433</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.351551246124084</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>23.50921256991667</v>
+        <v>21.85314263519652</v>
       </c>
       <c r="N24">
-        <v>24.21344981176627</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.47979812736456</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>38.23659417317747</v>
+        <v>22.96518107188157</v>
       </c>
       <c r="C25">
-        <v>23.02549196218082</v>
+        <v>15.86816783587557</v>
       </c>
       <c r="D25">
-        <v>6.5536089061867</v>
+        <v>7.926818533634034</v>
       </c>
       <c r="E25">
-        <v>5.952104461843896</v>
+        <v>12.25001895211989</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.15153331815783</v>
+        <v>22.26111051762794</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.633968181603752</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.304291740264319</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.104851431000109</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>22.05356267100219</v>
+        <v>19.82926705412095</v>
       </c>
       <c r="N25">
-        <v>23.62850243063838</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.95134229492148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11555493389764</v>
+        <v>12.65897045142951</v>
       </c>
       <c r="C2">
-        <v>14.76064688553168</v>
+        <v>9.459933672100128</v>
       </c>
       <c r="D2">
-        <v>7.23635724846902</v>
+        <v>5.963794528825298</v>
       </c>
       <c r="E2">
-        <v>11.40022701059971</v>
+        <v>11.66460203902936</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.8897836609042</v>
+        <v>22.07014778229567</v>
       </c>
       <c r="H2">
-        <v>7.630429449319558</v>
+        <v>12.42001788436983</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.21782220448841</v>
+        <v>14.42093827188041</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.63233031003851</v>
+        <v>18.03175421150882</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76738333422133</v>
+        <v>11.98859368823048</v>
       </c>
       <c r="C3">
-        <v>13.96182003275707</v>
+        <v>9.045193081341649</v>
       </c>
       <c r="D3">
-        <v>6.734288129661625</v>
+        <v>5.84102843233049</v>
       </c>
       <c r="E3">
-        <v>10.82671187737255</v>
+        <v>11.59755345091735</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.0032385837668</v>
+        <v>22.03665919583081</v>
       </c>
       <c r="H3">
-        <v>7.648233461077074</v>
+        <v>12.47531389426312</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.04873655979243</v>
+        <v>14.09635239970225</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.4576829111779</v>
+        <v>18.10323093379353</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89269019773352</v>
+        <v>11.55731064408175</v>
       </c>
       <c r="C4">
-        <v>13.44810349025729</v>
+        <v>8.779511201313406</v>
       </c>
       <c r="D4">
-        <v>6.408914056994158</v>
+        <v>5.766121091900955</v>
       </c>
       <c r="E4">
-        <v>10.47676920946298</v>
+        <v>11.56152802797377</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>19.48195639935233</v>
+        <v>22.02904870656905</v>
       </c>
       <c r="H4">
-        <v>7.668345878327731</v>
+        <v>12.51233423791978</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.29261568432</v>
+        <v>13.89591426323856</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.370016184858</v>
+        <v>18.15356921308154</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52443532009613</v>
+        <v>11.37677564725525</v>
       </c>
       <c r="C5">
-        <v>13.23303252859971</v>
+        <v>8.668577583644046</v>
       </c>
       <c r="D5">
-        <v>6.271983823543538</v>
+        <v>5.735762273491301</v>
       </c>
       <c r="E5">
-        <v>10.33490279509735</v>
+        <v>11.5481510330676</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.27562542295668</v>
+        <v>22.02919405111814</v>
       </c>
       <c r="H5">
-        <v>7.678734546817418</v>
+        <v>12.52818968106621</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.97483020808395</v>
+        <v>13.81406445536871</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.33905191045155</v>
+        <v>18.17569478256113</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46257347381552</v>
+        <v>11.34651438481357</v>
       </c>
       <c r="C6">
-        <v>13.1969781902326</v>
+        <v>8.649999570897684</v>
       </c>
       <c r="D6">
-        <v>6.248983604341643</v>
+        <v>5.7307326859775</v>
       </c>
       <c r="E6">
-        <v>10.31139648214476</v>
+        <v>11.54600878152341</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.24174091654149</v>
+        <v>22.02941386790678</v>
       </c>
       <c r="H6">
-        <v>7.680588648333007</v>
+        <v>12.53086886734243</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.92147817201881</v>
+        <v>13.80046661312211</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.33419276062291</v>
+        <v>18.17946579829338</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88777161036622</v>
+        <v>11.55489501764509</v>
       </c>
       <c r="C7">
-        <v>13.44522598412207</v>
+        <v>8.778025752975307</v>
       </c>
       <c r="D7">
-        <v>6.407084979835285</v>
+        <v>5.765710924154926</v>
       </c>
       <c r="E7">
-        <v>10.47485269685566</v>
+        <v>11.56134233095955</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>19.47914868218386</v>
+        <v>22.02903753877694</v>
       </c>
       <c r="H7">
-        <v>7.668477257554886</v>
+        <v>12.51254495785092</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.28836905950831</v>
+        <v>13.8948109371973</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.36957954101733</v>
+        <v>18.15386109151022</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66042789617885</v>
+        <v>12.43199498253229</v>
       </c>
       <c r="C8">
-        <v>14.49009364312663</v>
+        <v>9.319279838392799</v>
       </c>
       <c r="D8">
-        <v>7.066770466689368</v>
+        <v>5.921395463431798</v>
       </c>
       <c r="E8">
-        <v>11.20212549014268</v>
+        <v>11.64042348373847</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.5794970352421</v>
+        <v>22.05590851761061</v>
       </c>
       <c r="H8">
-        <v>7.634592810499187</v>
+        <v>12.43844578265318</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.82264721277284</v>
+        <v>14.30932703093185</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.56796134234406</v>
+        <v>18.05505458538661</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.76585703400838</v>
+        <v>13.99021747713159</v>
       </c>
       <c r="C9">
-        <v>16.35107328427691</v>
+        <v>10.28921307235103</v>
       </c>
       <c r="D9">
-        <v>8.226455274230638</v>
+        <v>6.228370773790819</v>
       </c>
       <c r="E9">
-        <v>12.63913675508825</v>
+        <v>11.83570782789968</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.90731652172669</v>
+        <v>22.21152713789743</v>
       </c>
       <c r="H9">
-        <v>7.646201030832679</v>
+        <v>12.31758200107652</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.52964565872943</v>
+        <v>15.1082028439574</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.1182253391471</v>
+        <v>17.9129068449285</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.82439082928974</v>
+        <v>15.03044014806999</v>
       </c>
       <c r="C10">
-        <v>17.60049495917586</v>
+        <v>10.94171100743411</v>
       </c>
       <c r="D10">
-        <v>8.999311929793034</v>
+        <v>6.452260049337529</v>
       </c>
       <c r="E10">
-        <v>13.88052833071848</v>
+        <v>12.00270473462166</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.7054537621192</v>
+        <v>22.38840043135468</v>
       </c>
       <c r="H10">
-        <v>7.709422043416055</v>
+        <v>12.24381892925969</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.33853088224329</v>
+        <v>15.68036201940441</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.62737495129647</v>
+        <v>17.84048266990012</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.71330857608082</v>
+        <v>15.48007005566707</v>
       </c>
       <c r="C11">
-        <v>18.14301231343007</v>
+        <v>11.22480573725516</v>
       </c>
       <c r="D11">
-        <v>9.33428729468873</v>
+        <v>6.553226516308787</v>
       </c>
       <c r="E11">
-        <v>14.46391230682781</v>
+        <v>12.08352098866325</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.53993382268552</v>
+        <v>22.4822725066457</v>
       </c>
       <c r="H11">
-        <v>7.751558421327977</v>
+        <v>12.21355533614051</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.12347549910908</v>
+        <v>15.93623843238516</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.88276809505469</v>
+        <v>17.81459238952311</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.04316668368097</v>
+        <v>15.64688920141277</v>
       </c>
       <c r="C12">
-        <v>18.34472760229601</v>
+        <v>11.32998669261301</v>
       </c>
       <c r="D12">
-        <v>9.458795759919566</v>
+        <v>6.591291961171597</v>
       </c>
       <c r="E12">
-        <v>14.6825276988935</v>
+        <v>12.11479598950899</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.86262626957725</v>
+        <v>22.51972453922826</v>
       </c>
       <c r="H12">
-        <v>7.76955812983138</v>
+        <v>12.20257096069177</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.41536464970585</v>
+        <v>16.03240735706451</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.98295741089595</v>
+        <v>17.80581083789381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.97242497471529</v>
+        <v>15.61111574152661</v>
       </c>
       <c r="C13">
-        <v>18.30145021052956</v>
+        <v>11.30742462765512</v>
       </c>
       <c r="D13">
-        <v>9.432083892883432</v>
+        <v>6.583102010110968</v>
       </c>
       <c r="E13">
-        <v>14.63554507351538</v>
+        <v>12.10803091398096</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.7895170011287</v>
+        <v>22.51157430164469</v>
       </c>
       <c r="H13">
-        <v>7.765588801332927</v>
+        <v>12.20491544267123</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.35273740591039</v>
+        <v>16.01172935353582</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.96122437237049</v>
+        <v>17.80765650555152</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.74058112138547</v>
+        <v>15.49386370852205</v>
       </c>
       <c r="C14">
-        <v>18.15968218314473</v>
+        <v>11.23349977736909</v>
       </c>
       <c r="D14">
-        <v>9.344577284051486</v>
+        <v>6.55636178693659</v>
       </c>
       <c r="E14">
-        <v>14.48194324110357</v>
+        <v>12.08608069422606</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.56606971468125</v>
+        <v>22.4853156915105</v>
       </c>
       <c r="H14">
-        <v>7.752997634522181</v>
+        <v>12.21264209541318</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.14759604170622</v>
+        <v>15.94416536509789</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.89094074121031</v>
+        <v>17.8138493898405</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.59769271818769</v>
+        <v>15.42159322624299</v>
       </c>
       <c r="C15">
-        <v>18.07236018952216</v>
+        <v>11.18795424987806</v>
       </c>
       <c r="D15">
-        <v>9.290673757206712</v>
+        <v>6.539959510626549</v>
       </c>
       <c r="E15">
-        <v>14.38756218611989</v>
+        <v>12.07272222726884</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.42948618385016</v>
+        <v>22.46947877911505</v>
       </c>
       <c r="H15">
-        <v>7.74555482907194</v>
+        <v>12.21743692786387</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.02124720841315</v>
+        <v>15.9026832893648</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.84834439907038</v>
+        <v>17.8177760983655</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.7653481735605</v>
+        <v>15.00057634726991</v>
       </c>
       <c r="C16">
-        <v>17.56451908260406</v>
+        <v>10.92292965717685</v>
       </c>
       <c r="D16">
-        <v>8.977090473303731</v>
+        <v>6.445640300160739</v>
       </c>
       <c r="E16">
-        <v>13.84207396268745</v>
+        <v>11.99751862450964</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.65123564032066</v>
+        <v>22.38253363802509</v>
       </c>
       <c r="H16">
-        <v>7.706947828985124</v>
+        <v>12.24586317278744</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2864781360061</v>
+        <v>15.66354322300925</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.61116812503857</v>
+        <v>17.84231733346991</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.24261320318327</v>
+        <v>14.73621463087675</v>
       </c>
       <c r="C17">
-        <v>17.24634464785996</v>
+        <v>10.75679337425447</v>
       </c>
       <c r="D17">
-        <v>8.780498574813517</v>
+        <v>6.387522318171474</v>
       </c>
       <c r="E17">
-        <v>13.50320286140172</v>
+        <v>11.95260789210487</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.17789924368141</v>
+        <v>22.33261549930287</v>
       </c>
       <c r="H17">
-        <v>7.686776047486175</v>
+        <v>12.26414657185286</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.82607576611715</v>
+        <v>15.5156429201584</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.47180357011477</v>
+        <v>17.85918559144466</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.93747190174575</v>
+        <v>14.5819444969767</v>
       </c>
       <c r="C18">
-        <v>17.06090540989611</v>
+        <v>10.65994608242504</v>
       </c>
       <c r="D18">
-        <v>8.665858547930597</v>
+        <v>6.354013720701418</v>
       </c>
       <c r="E18">
-        <v>13.30670040766315</v>
+        <v>11.92723445311546</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.90720789691559</v>
+        <v>22.3051680657807</v>
       </c>
       <c r="H18">
-        <v>7.676425840079111</v>
+        <v>12.27497237457689</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.55768790640815</v>
+        <v>15.43016541379988</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.39388032661571</v>
+        <v>17.86955146262234</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.8333849861799</v>
+        <v>14.52933255121876</v>
       </c>
       <c r="C19">
-        <v>16.99770131418451</v>
+        <v>10.62693523056996</v>
       </c>
       <c r="D19">
-        <v>8.62677310231796</v>
+        <v>6.342655735644233</v>
       </c>
       <c r="E19">
-        <v>13.23989117772075</v>
+        <v>11.91872285687388</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.81583000192379</v>
+        <v>22.29609258882325</v>
       </c>
       <c r="H19">
-        <v>7.673132780385076</v>
+        <v>12.27869091689821</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.46619920388603</v>
+        <v>15.40115686572295</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.36787885025209</v>
+        <v>17.87317490715177</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.2987221524732</v>
+        <v>14.76458620808914</v>
       </c>
       <c r="C20">
-        <v>17.28046683374663</v>
+        <v>10.7746127480129</v>
       </c>
       <c r="D20">
-        <v>8.801587810163808</v>
+        <v>6.393717734477324</v>
       </c>
       <c r="E20">
-        <v>13.53944030868237</v>
+        <v>11.95734149144466</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.22812666596709</v>
+        <v>22.33779868900229</v>
       </c>
       <c r="H20">
-        <v>7.688792905712074</v>
+        <v>12.26216820463889</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.87545585020794</v>
+        <v>15.53143020128316</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.48640733552797</v>
+        <v>17.85732118718378</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.80886196911441</v>
+        <v>15.52839738347634</v>
       </c>
       <c r="C21">
-        <v>18.20142395302094</v>
+        <v>11.25526847524266</v>
       </c>
       <c r="D21">
-        <v>9.370343194369116</v>
+        <v>6.564220927040799</v>
       </c>
       <c r="E21">
-        <v>14.52712115742924</v>
+        <v>12.09250999075244</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.63164254056745</v>
+        <v>22.49297700681524</v>
       </c>
       <c r="H21">
-        <v>7.756639560973687</v>
+        <v>12.21035965790939</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.20799542794012</v>
+        <v>15.96403095549097</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.91148995888226</v>
+        <v>17.81200257844744</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.75649007730428</v>
+        <v>16.00748851609906</v>
       </c>
       <c r="C22">
-        <v>18.78162087483565</v>
+        <v>11.55760938592629</v>
       </c>
       <c r="D22">
-        <v>9.7284457710953</v>
+        <v>6.674655738127812</v>
       </c>
       <c r="E22">
-        <v>15.15929646619213</v>
+        <v>12.18475212994594</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.62149113273515</v>
+        <v>22.60548210570309</v>
       </c>
       <c r="H22">
-        <v>7.812946395381511</v>
+        <v>12.17927416941034</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.04774495403139</v>
+        <v>16.24249090878688</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.20959592343798</v>
+        <v>17.78834757069653</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.25429445987487</v>
+        <v>15.75364361445155</v>
       </c>
       <c r="C23">
-        <v>18.4739434364614</v>
+        <v>11.39733699576193</v>
       </c>
       <c r="D23">
-        <v>9.538548711289661</v>
+        <v>6.615819087810118</v>
       </c>
       <c r="E23">
-        <v>14.82306677187027</v>
+        <v>12.13517267309291</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.0852603698151</v>
+        <v>22.54443088951116</v>
       </c>
       <c r="H23">
-        <v>7.781760668720085</v>
+        <v>12.19561041688606</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.60236778195931</v>
+        <v>16.09429126008405</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.04861793297713</v>
+        <v>17.80042460502352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.27336967385422</v>
+        <v>14.75176653112965</v>
       </c>
       <c r="C24">
-        <v>17.26504803121637</v>
+        <v>10.76656075860911</v>
       </c>
       <c r="D24">
-        <v>8.792058406183404</v>
+        <v>6.390917081981621</v>
       </c>
       <c r="E24">
-        <v>13.52306260339545</v>
+        <v>11.95520003895659</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.2054143625442</v>
+        <v>22.33545146985541</v>
       </c>
       <c r="H24">
-        <v>7.687877209675579</v>
+        <v>12.26306164516667</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.85314263519652</v>
+        <v>15.5242941586884</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.47979812736456</v>
+        <v>17.85816200386405</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.96518107188157</v>
+        <v>13.5866929937429</v>
       </c>
       <c r="C25">
-        <v>15.86816783587557</v>
+        <v>10.03710845139549</v>
       </c>
       <c r="D25">
-        <v>7.926818533634034</v>
+        <v>6.14542819341815</v>
       </c>
       <c r="E25">
-        <v>12.25001895211989</v>
+        <v>11.77866595112076</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.26111051762794</v>
+        <v>22.15840653663512</v>
       </c>
       <c r="H25">
-        <v>7.633968181603752</v>
+        <v>12.347648048132</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.82926705412095</v>
+        <v>14.89425040265501</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.95134229492148</v>
+        <v>17.94577759096846</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.65897045142951</v>
+        <v>21.11555493389767</v>
       </c>
       <c r="C2">
-        <v>9.459933672100128</v>
+        <v>14.76064688553162</v>
       </c>
       <c r="D2">
-        <v>5.963794528825298</v>
+        <v>7.236357248469067</v>
       </c>
       <c r="E2">
-        <v>11.66460203902936</v>
+        <v>11.40022701059973</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.07014778229567</v>
+        <v>20.88978366090418</v>
       </c>
       <c r="H2">
-        <v>12.42001788436983</v>
+        <v>7.630429449319514</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.42093827188041</v>
+        <v>18.2178222044884</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.03175421150882</v>
+        <v>12.63233031003847</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.98859368823048</v>
+        <v>19.76738333422133</v>
       </c>
       <c r="C3">
-        <v>9.045193081341649</v>
+        <v>13.96182003275708</v>
       </c>
       <c r="D3">
-        <v>5.84102843233049</v>
+        <v>6.73428812966157</v>
       </c>
       <c r="E3">
-        <v>11.59755345091735</v>
+        <v>10.82671187737248</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.03665919583081</v>
+        <v>20.00323858376678</v>
       </c>
       <c r="H3">
-        <v>12.47531389426312</v>
+        <v>7.648233461077074</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.09635239970225</v>
+        <v>17.04873655979248</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.10323093379353</v>
+        <v>12.45768291117784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.55731064408175</v>
+        <v>18.89269019773352</v>
       </c>
       <c r="C4">
-        <v>8.779511201313406</v>
+        <v>13.44810349025731</v>
       </c>
       <c r="D4">
-        <v>5.766121091900955</v>
+        <v>6.408914056994136</v>
       </c>
       <c r="E4">
-        <v>11.56152802797377</v>
+        <v>10.47676920946296</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.02904870656905</v>
+        <v>19.48195639935227</v>
       </c>
       <c r="H4">
-        <v>12.51233423791978</v>
+        <v>7.668345878327716</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.89591426323856</v>
+        <v>16.29261568432003</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.15356921308154</v>
+        <v>12.37001618485794</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.37677564725525</v>
+        <v>18.52443532009606</v>
       </c>
       <c r="C5">
-        <v>8.668577583644046</v>
+        <v>13.23303252859976</v>
       </c>
       <c r="D5">
-        <v>5.735762273491301</v>
+        <v>6.271983823543491</v>
       </c>
       <c r="E5">
-        <v>11.5481510330676</v>
+        <v>10.33490279509739</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.02919405111814</v>
+        <v>19.27562542295682</v>
       </c>
       <c r="H5">
-        <v>12.52818968106621</v>
+        <v>7.678734546817427</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.81406445536871</v>
+        <v>15.9748302080839</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.17569478256113</v>
+        <v>12.33905191045162</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.34651438481357</v>
+        <v>18.46257347381549</v>
       </c>
       <c r="C6">
-        <v>8.649999570897684</v>
+        <v>13.19697819023261</v>
       </c>
       <c r="D6">
-        <v>5.7307326859775</v>
+        <v>6.24898360434157</v>
       </c>
       <c r="E6">
-        <v>11.54600878152341</v>
+        <v>10.31139648214474</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.02941386790678</v>
+        <v>19.24174091654159</v>
       </c>
       <c r="H6">
-        <v>12.53086886734243</v>
+        <v>7.680588648333061</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.80046661312211</v>
+        <v>15.92147817201882</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.17946579829338</v>
+        <v>12.33419276062299</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.55489501764509</v>
+        <v>18.88777161036624</v>
       </c>
       <c r="C7">
-        <v>8.778025752975307</v>
+        <v>13.44522598412204</v>
       </c>
       <c r="D7">
-        <v>5.765710924154926</v>
+        <v>6.407084979835248</v>
       </c>
       <c r="E7">
-        <v>11.56134233095955</v>
+        <v>10.47485269685567</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.02903753877694</v>
+        <v>19.47914868218376</v>
       </c>
       <c r="H7">
-        <v>12.51254495785092</v>
+        <v>7.668477257554828</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.8948109371973</v>
+        <v>16.28836905950833</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.15386109151022</v>
+        <v>12.3695795410172</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.43199498253229</v>
+        <v>20.6604278961788</v>
       </c>
       <c r="C8">
-        <v>9.319279838392799</v>
+        <v>14.49009364312678</v>
       </c>
       <c r="D8">
-        <v>5.921395463431798</v>
+        <v>7.066770466689282</v>
       </c>
       <c r="E8">
-        <v>11.64042348373847</v>
+        <v>11.2021254901427</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>22.05590851761061</v>
+        <v>20.57949703524217</v>
       </c>
       <c r="H8">
-        <v>12.43844578265318</v>
+        <v>7.634592810499346</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.30932703093185</v>
+        <v>17.8226472127728</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.05505458538661</v>
+        <v>12.56796134234418</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.99021747713159</v>
+        <v>23.7658570340084</v>
       </c>
       <c r="C9">
-        <v>10.28921307235103</v>
+        <v>16.35107328427678</v>
       </c>
       <c r="D9">
-        <v>6.228370773790819</v>
+        <v>8.226455274230654</v>
       </c>
       <c r="E9">
-        <v>11.83570782789968</v>
+        <v>12.63913675508826</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.21152713789743</v>
+        <v>22.90731652172667</v>
       </c>
       <c r="H9">
-        <v>12.31758200107652</v>
+        <v>7.64620103083259</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.1082028439574</v>
+        <v>20.52964565872943</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.9129068449285</v>
+        <v>13.11822533914708</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.03044014806999</v>
+        <v>25.82439082928972</v>
       </c>
       <c r="C10">
-        <v>10.94171100743411</v>
+        <v>17.6004949591759</v>
       </c>
       <c r="D10">
-        <v>6.452260049337529</v>
+        <v>8.999311929793004</v>
       </c>
       <c r="E10">
-        <v>12.00270473462166</v>
+        <v>13.8805283307185</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>22.38840043135468</v>
+        <v>24.70545376211922</v>
       </c>
       <c r="H10">
-        <v>12.24381892925969</v>
+        <v>7.709422043416035</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.68036201940441</v>
+        <v>22.33853088224332</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.84048266990012</v>
+        <v>13.62737495129646</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.48007005566707</v>
+        <v>26.71330857608084</v>
       </c>
       <c r="C11">
-        <v>11.22480573725516</v>
+        <v>18.14301231343005</v>
       </c>
       <c r="D11">
-        <v>6.553226516308787</v>
+        <v>9.334287294688709</v>
       </c>
       <c r="E11">
-        <v>12.08352098866325</v>
+        <v>14.46391230682783</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22.4822725066457</v>
+        <v>25.53993382268552</v>
       </c>
       <c r="H11">
-        <v>12.21355533614051</v>
+        <v>7.751558421327983</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.93623843238516</v>
+        <v>23.1234754991091</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.81459238952311</v>
+        <v>13.8827680950547</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.64688920141277</v>
+        <v>27.043166683681</v>
       </c>
       <c r="C12">
-        <v>11.32998669261301</v>
+        <v>18.34472760229606</v>
       </c>
       <c r="D12">
-        <v>6.591291961171597</v>
+        <v>9.458795759919568</v>
       </c>
       <c r="E12">
-        <v>12.11479598950899</v>
+        <v>14.68252769889347</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>22.51972453922826</v>
+        <v>25.86262626957737</v>
       </c>
       <c r="H12">
-        <v>12.20257096069177</v>
+        <v>7.76955812983135</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.03240735706451</v>
+        <v>23.41536464970588</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.80581083789381</v>
+        <v>13.98295741089591</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.61111574152661</v>
+        <v>26.97242497471532</v>
       </c>
       <c r="C13">
-        <v>11.30742462765512</v>
+        <v>18.30145021052944</v>
       </c>
       <c r="D13">
-        <v>6.583102010110968</v>
+        <v>9.432083892883442</v>
       </c>
       <c r="E13">
-        <v>12.10803091398096</v>
+        <v>14.63554507351538</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>22.51157430164469</v>
+        <v>25.78951700112877</v>
       </c>
       <c r="H13">
-        <v>12.20491544267123</v>
+        <v>7.765588801332904</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.01172935353582</v>
+        <v>23.3527374059104</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.80765650555152</v>
+        <v>13.96122437237051</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.49386370852205</v>
+        <v>26.74058112138547</v>
       </c>
       <c r="C14">
-        <v>11.23349977736909</v>
+        <v>18.15968218314475</v>
       </c>
       <c r="D14">
-        <v>6.55636178693659</v>
+        <v>9.344577284051475</v>
       </c>
       <c r="E14">
-        <v>12.08608069422606</v>
+        <v>14.48194324110357</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>22.4853156915105</v>
+        <v>25.56606971468126</v>
       </c>
       <c r="H14">
-        <v>12.21264209541318</v>
+        <v>7.752997634522149</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.94416536509789</v>
+        <v>23.14759604170623</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.8138493898405</v>
+        <v>13.8909407412103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.42159322624299</v>
+        <v>26.59769271818768</v>
       </c>
       <c r="C15">
-        <v>11.18795424987806</v>
+        <v>18.07236018952214</v>
       </c>
       <c r="D15">
-        <v>6.539959510626549</v>
+        <v>9.290673757206687</v>
       </c>
       <c r="E15">
-        <v>12.07272222726884</v>
+        <v>14.38756218611996</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>22.46947877911505</v>
+        <v>25.42948618385022</v>
       </c>
       <c r="H15">
-        <v>12.21743692786387</v>
+        <v>7.7455548290719</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.9026832893648</v>
+        <v>23.02124720841318</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.8177760983655</v>
+        <v>13.84834439907043</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.00057634726991</v>
+        <v>25.76534817356044</v>
       </c>
       <c r="C16">
-        <v>10.92292965717685</v>
+        <v>17.56451908260418</v>
       </c>
       <c r="D16">
-        <v>6.445640300160739</v>
+        <v>8.977090473303678</v>
       </c>
       <c r="E16">
-        <v>11.99751862450964</v>
+        <v>13.8420739626874</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.38253363802509</v>
+        <v>24.65123564032069</v>
       </c>
       <c r="H16">
-        <v>12.24586317278744</v>
+        <v>7.706947828985164</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.66354322300925</v>
+        <v>22.28647813600607</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.84231733346991</v>
+        <v>13.61116812503867</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.73621463087675</v>
+        <v>25.24261320318327</v>
       </c>
       <c r="C17">
-        <v>10.75679337425447</v>
+        <v>17.24634464785993</v>
       </c>
       <c r="D17">
-        <v>6.387522318171474</v>
+        <v>8.780498574813503</v>
       </c>
       <c r="E17">
-        <v>11.95260789210487</v>
+        <v>13.50320286140175</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.33261549930287</v>
+        <v>24.17789924368157</v>
       </c>
       <c r="H17">
-        <v>12.26414657185286</v>
+        <v>7.686776047486166</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.5156429201584</v>
+        <v>21.82607576611717</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.85918559144466</v>
+        <v>13.47180357011481</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.5819444969767</v>
+        <v>24.93747190174566</v>
       </c>
       <c r="C18">
-        <v>10.65994608242504</v>
+        <v>17.06090540989616</v>
       </c>
       <c r="D18">
-        <v>6.354013720701418</v>
+        <v>8.665858547930537</v>
       </c>
       <c r="E18">
-        <v>11.92723445311546</v>
+        <v>13.30670040766311</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.3051680657807</v>
+        <v>23.9072078969156</v>
       </c>
       <c r="H18">
-        <v>12.27497237457689</v>
+        <v>7.67642584007918</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.43016541379988</v>
+        <v>21.55768790640812</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.86955146262234</v>
+        <v>13.39388032661577</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.52933255121876</v>
+        <v>24.83338498617992</v>
       </c>
       <c r="C19">
-        <v>10.62693523056996</v>
+        <v>16.99770131418448</v>
       </c>
       <c r="D19">
-        <v>6.342655735644233</v>
+        <v>8.626773102317998</v>
       </c>
       <c r="E19">
-        <v>11.91872285687388</v>
+        <v>13.23989117772081</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.29609258882325</v>
+        <v>23.81583000192382</v>
       </c>
       <c r="H19">
-        <v>12.27869091689821</v>
+        <v>7.673132780385046</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.40115686572295</v>
+        <v>21.46619920388606</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.87317490715177</v>
+        <v>13.36787885025207</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.76458620808914</v>
+        <v>25.29872215247309</v>
       </c>
       <c r="C20">
-        <v>10.7746127480129</v>
+        <v>17.28046683374655</v>
       </c>
       <c r="D20">
-        <v>6.393717734477324</v>
+        <v>8.801587810163728</v>
       </c>
       <c r="E20">
-        <v>11.95734149144466</v>
+        <v>13.53944030868238</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>22.33779868900229</v>
+        <v>24.2281266659671</v>
       </c>
       <c r="H20">
-        <v>12.26216820463889</v>
+        <v>7.688792905712274</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.53143020128316</v>
+        <v>21.87545585020787</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.85732118718378</v>
+        <v>13.48640733552811</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.52839738347634</v>
+        <v>26.80886196911446</v>
       </c>
       <c r="C21">
-        <v>11.25526847524266</v>
+        <v>18.20142395302092</v>
       </c>
       <c r="D21">
-        <v>6.564220927040799</v>
+        <v>9.37034319436917</v>
       </c>
       <c r="E21">
-        <v>12.09250999075244</v>
+        <v>14.52712115742921</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>22.49297700681524</v>
+        <v>25.63164254056753</v>
       </c>
       <c r="H21">
-        <v>12.21035965790939</v>
+        <v>7.756639560973612</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.96403095549097</v>
+        <v>23.20799542794016</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.81200257844744</v>
+        <v>13.91148995888223</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.00748851609906</v>
+        <v>27.75649007730426</v>
       </c>
       <c r="C22">
-        <v>11.55760938592629</v>
+        <v>18.78162087483563</v>
       </c>
       <c r="D22">
-        <v>6.674655738127812</v>
+        <v>9.7284457710953</v>
       </c>
       <c r="E22">
-        <v>12.18475212994594</v>
+        <v>15.15929646619205</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>22.60548210570309</v>
+        <v>26.6214911327352</v>
       </c>
       <c r="H22">
-        <v>12.17927416941034</v>
+        <v>7.812946395381582</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.24249090878688</v>
+        <v>24.04774495403132</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.78834757069653</v>
+        <v>14.20959592343805</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.75364361445155</v>
+        <v>27.25429445987484</v>
       </c>
       <c r="C23">
-        <v>11.39733699576193</v>
+        <v>18.47394343646146</v>
       </c>
       <c r="D23">
-        <v>6.615819087810118</v>
+        <v>9.538548711289636</v>
       </c>
       <c r="E23">
-        <v>12.13517267309291</v>
+        <v>14.82306677187028</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>22.54443088951116</v>
+        <v>26.08526036981512</v>
       </c>
       <c r="H23">
-        <v>12.19561041688606</v>
+        <v>7.781760668720085</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.09429126008405</v>
+        <v>23.60236778195929</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.80042460502352</v>
+        <v>14.04861793297714</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.75176653112965</v>
+        <v>25.27336967385416</v>
       </c>
       <c r="C24">
-        <v>10.76656075860911</v>
+        <v>17.26504803121639</v>
       </c>
       <c r="D24">
-        <v>6.390917081981621</v>
+        <v>8.792058406183308</v>
       </c>
       <c r="E24">
-        <v>11.95520003895659</v>
+        <v>13.52306260339545</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>22.33545146985541</v>
+        <v>24.20541436254423</v>
       </c>
       <c r="H24">
-        <v>12.26306164516667</v>
+        <v>7.687877209675606</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.5242941586884</v>
+        <v>21.85314263519648</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.85816200386405</v>
+        <v>13.47979812736465</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.5866929937429</v>
+        <v>22.96518107188156</v>
       </c>
       <c r="C25">
-        <v>10.03710845139549</v>
+        <v>15.86816783587547</v>
       </c>
       <c r="D25">
-        <v>6.14542819341815</v>
+        <v>7.926818533633946</v>
       </c>
       <c r="E25">
-        <v>11.77866595112076</v>
+        <v>12.25001895211989</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.15840653663512</v>
+        <v>22.26111051762803</v>
       </c>
       <c r="H25">
-        <v>12.347648048132</v>
+        <v>7.633968181603845</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.89425040265501</v>
+        <v>19.8292670541209</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.94577759096846</v>
+        <v>12.95134229492156</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.11555493389767</v>
+        <v>22.37536222818871</v>
       </c>
       <c r="C2">
-        <v>14.76064688553162</v>
+        <v>14.03394184342077</v>
       </c>
       <c r="D2">
-        <v>7.236357248469067</v>
+        <v>7.870432967205356</v>
       </c>
       <c r="E2">
-        <v>11.40022701059973</v>
+        <v>7.04940813705328</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.88978366090418</v>
+        <v>47.00928103789669</v>
       </c>
       <c r="H2">
-        <v>7.630429449319514</v>
+        <v>3.437240495787421</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.746347364309198</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>14.42284532476493</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.2526689870208</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.116556809647207</v>
       </c>
       <c r="M2">
-        <v>18.2178222044884</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.012817598297497</v>
       </c>
       <c r="O2">
-        <v>12.63233031003847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.66531787741258</v>
+      </c>
+      <c r="P2">
+        <v>13.92563776449778</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76738333422133</v>
+        <v>21.01577462814624</v>
       </c>
       <c r="C3">
-        <v>13.96182003275708</v>
+        <v>13.07289660908163</v>
       </c>
       <c r="D3">
-        <v>6.73428812966157</v>
+        <v>7.706583460558345</v>
       </c>
       <c r="E3">
-        <v>10.82671187737248</v>
+        <v>6.930564979048919</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.00323858376678</v>
+        <v>45.35163249021214</v>
       </c>
       <c r="H3">
-        <v>7.648233461077074</v>
+        <v>3.727755698013544</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.979217547725281</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14.17672696009848</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.92336838400702</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.973834141337781</v>
       </c>
       <c r="M3">
-        <v>17.04873655979248</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.795908976618931</v>
       </c>
       <c r="O3">
-        <v>12.45768291117784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.02829844355809</v>
+      </c>
+      <c r="P3">
+        <v>14.07772144193127</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89269019773352</v>
+        <v>20.13573843632652</v>
       </c>
       <c r="C4">
-        <v>13.44810349025731</v>
+        <v>12.45182724213651</v>
       </c>
       <c r="D4">
-        <v>6.408914056994136</v>
+        <v>7.605693379135896</v>
       </c>
       <c r="E4">
-        <v>10.47676920946296</v>
+        <v>6.855482337377597</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>19.48195639935227</v>
+        <v>44.3155316503243</v>
       </c>
       <c r="H4">
-        <v>7.668345878327716</v>
+        <v>3.912016221798413</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.127533255314307</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>14.02692247544542</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.72225882306343</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.883510742963592</v>
       </c>
       <c r="M4">
-        <v>16.29261568432003</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.660618990126082</v>
       </c>
       <c r="O4">
-        <v>12.37001618485794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.62376440260514</v>
+      </c>
+      <c r="P4">
+        <v>14.17180810125289</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52443532009606</v>
+        <v>19.75886041396326</v>
       </c>
       <c r="C5">
-        <v>13.23303252859976</v>
+        <v>12.19640726648845</v>
       </c>
       <c r="D5">
-        <v>6.271983823543491</v>
+        <v>7.564103544300198</v>
       </c>
       <c r="E5">
-        <v>10.33490279509739</v>
+        <v>6.823889770624328</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>19.27562542295682</v>
+        <v>43.8663955359879</v>
       </c>
       <c r="H5">
-        <v>7.678734546817427</v>
+        <v>3.989130438644502</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.191928763865407</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.96174441437246</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.63131882614741</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.845994839791513</v>
       </c>
       <c r="M5">
-        <v>15.9748302080839</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.605714775077854</v>
       </c>
       <c r="O5">
-        <v>12.33905191045162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.4537845110668</v>
+      </c>
+      <c r="P5">
+        <v>14.20901823621658</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46257347381549</v>
+        <v>19.68701013873352</v>
       </c>
       <c r="C6">
-        <v>13.19697819023261</v>
+        <v>12.16026565842115</v>
       </c>
       <c r="D6">
-        <v>6.24898360434157</v>
+        <v>7.556659827351798</v>
       </c>
       <c r="E6">
-        <v>10.31139648214474</v>
+        <v>6.818063931213563</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>19.24174091654159</v>
+        <v>43.76367565264469</v>
       </c>
       <c r="H6">
-        <v>7.680588648333061</v>
+        <v>4.002656164055542</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.206007669474023</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.9454444702439</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.60487606012326</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.839690559363087</v>
       </c>
       <c r="M6">
-        <v>15.92147817201882</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.597439148802265</v>
       </c>
       <c r="O6">
-        <v>12.33419276062299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.42299439551666</v>
+      </c>
+      <c r="P6">
+        <v>14.21359567863349</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88777161036624</v>
+        <v>20.1077190972115</v>
       </c>
       <c r="C7">
-        <v>13.44522598412204</v>
+        <v>12.46636022771469</v>
       </c>
       <c r="D7">
-        <v>6.407084979835248</v>
+        <v>7.603682370498412</v>
       </c>
       <c r="E7">
-        <v>10.47485269685567</v>
+        <v>6.853585777259388</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>19.47914868218376</v>
+        <v>44.23416660125086</v>
       </c>
       <c r="H7">
-        <v>7.668477257554828</v>
+        <v>3.914745814470654</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.13717930782831</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.01110971434694</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.69015744029748</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.88292215572979</v>
       </c>
       <c r="M7">
-        <v>16.28836905950833</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.662237363773873</v>
       </c>
       <c r="O7">
-        <v>12.3695795410172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.61507780922284</v>
+      </c>
+      <c r="P7">
+        <v>14.16796154864103</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.6604278961788</v>
+        <v>21.88774086590074</v>
       </c>
       <c r="C8">
-        <v>14.49009364312678</v>
+        <v>13.73073288184758</v>
       </c>
       <c r="D8">
-        <v>7.066770466689282</v>
+        <v>7.812165602837824</v>
       </c>
       <c r="E8">
-        <v>11.2021254901427</v>
+        <v>7.00699214235571</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.57949703524217</v>
+        <v>46.34631259255144</v>
       </c>
       <c r="H8">
-        <v>7.634592810499346</v>
+        <v>3.538360907964971</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.836850204727081</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>14.31840898205212</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.09884892982283</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.067813649648254</v>
       </c>
       <c r="M8">
-        <v>17.8226472127728</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.941537423057133</v>
       </c>
       <c r="O8">
-        <v>12.56796134234418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.44047950437487</v>
+      </c>
+      <c r="P8">
+        <v>13.97244959863722</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.7658570340084</v>
+        <v>25.05195660310251</v>
       </c>
       <c r="C9">
-        <v>16.35107328427678</v>
+        <v>15.93873397642971</v>
       </c>
       <c r="D9">
-        <v>8.226455274230654</v>
+        <v>8.219773840718233</v>
       </c>
       <c r="E9">
-        <v>12.63913675508826</v>
+        <v>7.29437282811447</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>22.90731652172667</v>
+        <v>50.45086984569421</v>
       </c>
       <c r="H9">
-        <v>7.64620103083259</v>
+        <v>2.842561643894142</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.274616710043409</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.9559055789995</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.96139413675977</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.409395493006991</v>
       </c>
       <c r="M9">
-        <v>20.52964565872943</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.466514995890311</v>
       </c>
       <c r="O9">
-        <v>13.11822533914708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.95667527514623</v>
+      </c>
+      <c r="P9">
+        <v>13.60115792908062</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.82439082928972</v>
+        <v>27.07341291508404</v>
       </c>
       <c r="C10">
-        <v>17.6004949591759</v>
+        <v>17.41354835356536</v>
       </c>
       <c r="D10">
-        <v>8.999311929793004</v>
+        <v>8.467048417473487</v>
       </c>
       <c r="E10">
-        <v>13.8805283307185</v>
+        <v>7.476249399171602</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>24.70545376211922</v>
+        <v>52.98653199219861</v>
       </c>
       <c r="H10">
-        <v>7.709422043416035</v>
+        <v>2.388160263525512</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.900026443110718</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>15.35207651627816</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.45808897523642</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.668002945818158</v>
       </c>
       <c r="M10">
-        <v>22.33853088224332</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.762550769929458</v>
       </c>
       <c r="O10">
-        <v>13.62737495129646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.90945347826202</v>
+      </c>
+      <c r="P10">
+        <v>13.31222139456486</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.71330857608084</v>
+        <v>27.32527198179343</v>
       </c>
       <c r="C11">
-        <v>18.14301231343005</v>
+        <v>17.98906929531409</v>
       </c>
       <c r="D11">
-        <v>9.334287294688709</v>
+        <v>8.167458686016863</v>
       </c>
       <c r="E11">
-        <v>14.46391230682783</v>
+        <v>7.454584505450007</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.53993382268552</v>
+        <v>51.20622558084276</v>
       </c>
       <c r="H11">
-        <v>7.751558421327983</v>
+        <v>3.169109687648509</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.825676001189384</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.91418391581467</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.55690806415223</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.98077029212359</v>
       </c>
       <c r="M11">
-        <v>23.1234754991091</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.241743193470272</v>
       </c>
       <c r="O11">
-        <v>13.8827680950547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.60883280729974</v>
+      </c>
+      <c r="P11">
+        <v>13.06203462461548</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.043166683681</v>
+        <v>27.14603113299805</v>
       </c>
       <c r="C12">
-        <v>18.34472760229606</v>
+        <v>18.15275989669362</v>
       </c>
       <c r="D12">
-        <v>9.458795759919568</v>
+        <v>7.863402648117884</v>
       </c>
       <c r="E12">
-        <v>14.68252769889347</v>
+        <v>7.498272946019815</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.86262626957737</v>
+        <v>49.23639860113644</v>
       </c>
       <c r="H12">
-        <v>7.76955812983135</v>
+        <v>4.432813633615988</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.819258059301246</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>14.47444058266237</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.72891340320317</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.222696016331619</v>
       </c>
       <c r="M12">
-        <v>23.41536464970588</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.746534725986494</v>
       </c>
       <c r="O12">
-        <v>13.98295741089591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.15596750890436</v>
+      </c>
+      <c r="P12">
+        <v>12.94834073908092</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.97242497471532</v>
+        <v>26.59124751613884</v>
       </c>
       <c r="C13">
-        <v>18.30145021052944</v>
+        <v>18.0349813376371</v>
       </c>
       <c r="D13">
-        <v>9.432083892883442</v>
+        <v>7.533088974589733</v>
       </c>
       <c r="E13">
-        <v>14.63554507351538</v>
+        <v>7.588062006792086</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.78951700112877</v>
+        <v>46.85432619803045</v>
       </c>
       <c r="H13">
-        <v>7.765588801332904</v>
+        <v>5.808911098975917</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.880422539094479</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13.98011218572662</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.85646075581986</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.423577401682397</v>
       </c>
       <c r="M13">
-        <v>23.3527374059104</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.242583020077688</v>
       </c>
       <c r="O13">
-        <v>13.96122437237051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.53973933923462</v>
+      </c>
+      <c r="P13">
+        <v>12.92501666014792</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.74058112138547</v>
+        <v>26.01983690945456</v>
       </c>
       <c r="C14">
-        <v>18.15968218314475</v>
+        <v>17.82797124382576</v>
       </c>
       <c r="D14">
-        <v>9.344577284051475</v>
+        <v>7.290052167617944</v>
       </c>
       <c r="E14">
-        <v>14.48194324110357</v>
+        <v>7.681595818087325</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.56606971468126</v>
+        <v>44.96086157741164</v>
       </c>
       <c r="H14">
-        <v>7.752997634522149</v>
+        <v>6.802938082169686</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.956681866329955</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13.60464966380347</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.21920308735966</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.549077323898994</v>
       </c>
       <c r="M14">
-        <v>23.14759604170623</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.890696699826965</v>
       </c>
       <c r="O14">
-        <v>13.8909407412103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.02641401193303</v>
+      </c>
+      <c r="P14">
+        <v>12.95210568232592</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.59769271818768</v>
+        <v>25.79158711908117</v>
       </c>
       <c r="C15">
-        <v>18.07236018952214</v>
+        <v>17.7219783655034</v>
       </c>
       <c r="D15">
-        <v>9.290673757206687</v>
+        <v>7.22509024897096</v>
       </c>
       <c r="E15">
-        <v>14.38756218611996</v>
+        <v>7.700874017296036</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.42948618385022</v>
+        <v>44.38750083755083</v>
       </c>
       <c r="H15">
-        <v>7.7455548290719</v>
+        <v>7.03901533095723</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.994731916834528</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>13.49758904216697</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.04587360360838</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.567316671862337</v>
       </c>
       <c r="M15">
-        <v>23.02124720841318</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.802762548891065</v>
       </c>
       <c r="O15">
-        <v>13.84834439907043</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.86433825586907</v>
+      </c>
+      <c r="P15">
+        <v>12.97344008642234</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.76534817356044</v>
+        <v>25.02058585547577</v>
       </c>
       <c r="C16">
-        <v>17.56451908260418</v>
+        <v>17.14342172836786</v>
       </c>
       <c r="D16">
-        <v>8.977090473303678</v>
+        <v>7.1800669157035</v>
       </c>
       <c r="E16">
-        <v>13.8420739626874</v>
+        <v>7.599844983455006</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.65123564032069</v>
+        <v>43.63266452094469</v>
       </c>
       <c r="H16">
-        <v>7.706947828985164</v>
+        <v>6.884596165975715</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.147257478241372</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13.40845615175115</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.97965772487848</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.422913609701355</v>
       </c>
       <c r="M16">
-        <v>22.28647813600607</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.769982870339208</v>
       </c>
       <c r="O16">
-        <v>13.61116812503867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.55543012296257</v>
+      </c>
+      <c r="P16">
+        <v>13.09310776104864</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.24261320318327</v>
+        <v>24.73610765578481</v>
       </c>
       <c r="C17">
-        <v>17.24634464785993</v>
+        <v>16.80630310818011</v>
       </c>
       <c r="D17">
-        <v>8.780498574813503</v>
+        <v>7.275675000098783</v>
       </c>
       <c r="E17">
-        <v>13.50320286140175</v>
+        <v>7.463848971548372</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.17789924368157</v>
+        <v>44.09074209290154</v>
       </c>
       <c r="H17">
-        <v>7.686776047486166</v>
+        <v>6.217792327981814</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.224720666528142</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>13.54245211096964</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.26894450977881</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.239894623902292</v>
       </c>
       <c r="M17">
-        <v>21.82607576611717</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.931089520312986</v>
       </c>
       <c r="O17">
-        <v>13.47180357011481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.5988348732984</v>
+      </c>
+      <c r="P17">
+        <v>13.16968842596219</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.93747190174566</v>
+        <v>24.86340336182703</v>
       </c>
       <c r="C18">
-        <v>17.06090540989616</v>
+        <v>16.63409329138968</v>
       </c>
       <c r="D18">
-        <v>8.665858547930537</v>
+        <v>7.506256938734425</v>
       </c>
       <c r="E18">
-        <v>13.30670040766311</v>
+        <v>7.327617414692611</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.9072078969156</v>
+        <v>45.69344486229279</v>
       </c>
       <c r="H18">
-        <v>7.67642584007918</v>
+        <v>5.078156922435583</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.233716179419687</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.89304004031356</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.92164756738195</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.015302975617328</v>
       </c>
       <c r="M18">
-        <v>21.55768790640812</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.289489905369183</v>
       </c>
       <c r="O18">
-        <v>13.39388032661577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.95536461311426</v>
+      </c>
+      <c r="P18">
+        <v>13.23408999917051</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.83338498617992</v>
+        <v>25.27319230998159</v>
       </c>
       <c r="C19">
-        <v>16.99770131418448</v>
+        <v>16.6360982840539</v>
       </c>
       <c r="D19">
-        <v>8.626773102317998</v>
+        <v>7.829208031726942</v>
       </c>
       <c r="E19">
-        <v>13.23989117772081</v>
+        <v>7.270336633632724</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.81583000192382</v>
+        <v>47.95417761592488</v>
       </c>
       <c r="H19">
-        <v>7.673132780385046</v>
+        <v>3.782034861403752</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.20314477675261</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>14.36599971037686</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.77408434688925</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.795434279552579</v>
       </c>
       <c r="M19">
-        <v>21.46619920388606</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.800002722094526</v>
       </c>
       <c r="O19">
-        <v>13.36787885025207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.52003397676745</v>
+      </c>
+      <c r="P19">
+        <v>13.30326975151464</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.29872215247309</v>
+        <v>26.49753840741086</v>
       </c>
       <c r="C20">
-        <v>17.28046683374655</v>
+        <v>17.07747584625952</v>
       </c>
       <c r="D20">
-        <v>8.801587810163728</v>
+        <v>8.396256747859027</v>
       </c>
       <c r="E20">
-        <v>13.53944030868238</v>
+        <v>7.423982317087202</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>24.2281266659671</v>
+        <v>52.11245021041262</v>
       </c>
       <c r="H20">
-        <v>7.688792905712274</v>
+        <v>2.510298285570403</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.028624708617288</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>15.20199252843607</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.23262234751818</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.601692747622353</v>
       </c>
       <c r="M20">
-        <v>21.87545585020787</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.688781676080962</v>
       </c>
       <c r="O20">
-        <v>13.48640733552811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.64359839991611</v>
+      </c>
+      <c r="P20">
+        <v>13.37582453388642</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.80886196911446</v>
+        <v>28.09962925442565</v>
       </c>
       <c r="C21">
-        <v>18.20142395302092</v>
+        <v>18.16859642537601</v>
       </c>
       <c r="D21">
-        <v>9.37034319436917</v>
+        <v>8.658947399096407</v>
       </c>
       <c r="E21">
-        <v>14.52712115742921</v>
+        <v>7.59356000823488</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.63164254056753</v>
+        <v>54.57196142800227</v>
       </c>
       <c r="H21">
-        <v>7.756639560973612</v>
+        <v>2.12171657552303</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.730246342424212</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.62376606411693</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.82982091678458</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.765380868444367</v>
       </c>
       <c r="M21">
-        <v>23.20799542794016</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.029166202407431</v>
       </c>
       <c r="O21">
-        <v>13.91148995888223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.48093711589502</v>
+      </c>
+      <c r="P21">
+        <v>13.18182082867049</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.75649007730426</v>
+        <v>29.09139581242896</v>
       </c>
       <c r="C22">
-        <v>18.78162087483563</v>
+        <v>18.83596205091806</v>
       </c>
       <c r="D22">
-        <v>9.7284457710953</v>
+        <v>8.806682426847239</v>
       </c>
       <c r="E22">
-        <v>15.15929646619205</v>
+        <v>7.694488521951366</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.6214911327352</v>
+        <v>56.06294219641027</v>
       </c>
       <c r="H22">
-        <v>7.812946395381582</v>
+        <v>1.884444028155255</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.530158171136843</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.88130897324644</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.19174114655161</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.880624892464078</v>
       </c>
       <c r="M22">
-        <v>24.04774495403132</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.206378469586133</v>
       </c>
       <c r="O22">
-        <v>14.20959592343805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.97715457570054</v>
+      </c>
+      <c r="P22">
+        <v>13.05151588379685</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.25429445987484</v>
+        <v>28.58602840566299</v>
       </c>
       <c r="C23">
-        <v>18.47394343646146</v>
+        <v>18.46717997695136</v>
       </c>
       <c r="D23">
-        <v>9.538548711289636</v>
+        <v>8.72940782792463</v>
       </c>
       <c r="E23">
-        <v>14.82306677187028</v>
+        <v>7.642187505925804</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.08526036981512</v>
+        <v>55.34226035963978</v>
       </c>
       <c r="H23">
-        <v>7.781760668720085</v>
+        <v>2.009030435426419</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.623605065674799</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.75956203695179</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.03152081981886</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.819342771999538</v>
       </c>
       <c r="M23">
-        <v>23.60236778195929</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.109622180291613</v>
       </c>
       <c r="O23">
-        <v>14.04861793297714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.71984544149459</v>
+      </c>
+      <c r="P23">
+        <v>13.12536758951088</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.27336967385416</v>
+        <v>26.55897901586044</v>
       </c>
       <c r="C24">
-        <v>17.26504803121639</v>
+        <v>17.0427611488349</v>
       </c>
       <c r="D24">
-        <v>8.792058406183308</v>
+        <v>8.432151965956381</v>
       </c>
       <c r="E24">
-        <v>13.52306260339545</v>
+        <v>7.439643496038189</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>24.20541436254423</v>
+        <v>52.44925364064997</v>
       </c>
       <c r="H24">
-        <v>7.687877209675606</v>
+        <v>2.491185593021765</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.007316093164083</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>15.27485490727869</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.37457341265892</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.583111723997683</v>
       </c>
       <c r="M24">
-        <v>21.85314263519648</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.740878475654799</v>
       </c>
       <c r="O24">
-        <v>13.47979812736465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.70529118572072</v>
+      </c>
+      <c r="P24">
+        <v>13.39831235935871</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.96518107188156</v>
+        <v>24.20011598092038</v>
       </c>
       <c r="C25">
-        <v>15.86816783587547</v>
+        <v>15.39362816105355</v>
       </c>
       <c r="D25">
-        <v>7.926818533633946</v>
+        <v>8.107682464905071</v>
       </c>
       <c r="E25">
-        <v>12.25001895211989</v>
+        <v>7.215794230116512</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.26111051762803</v>
+        <v>49.2378645771733</v>
       </c>
       <c r="H25">
-        <v>7.633968181603845</v>
+        <v>3.02897713030635</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.438928961017609</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.75715826602725</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.67430215689263</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.319114256069227</v>
       </c>
       <c r="M25">
-        <v>19.8292670541209</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.330755516197971</v>
       </c>
       <c r="O25">
-        <v>12.95134229492156</v>
+        <v>15.54913001928679</v>
+      </c>
+      <c r="P25">
+        <v>13.69414455537694</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.37536222818871</v>
+        <v>21.41277133250886</v>
       </c>
       <c r="C2">
-        <v>14.03394184342077</v>
+        <v>14.63004938197038</v>
       </c>
       <c r="D2">
-        <v>7.870432967205356</v>
+        <v>7.834936120076577</v>
       </c>
       <c r="E2">
-        <v>7.04940813705328</v>
+        <v>7.050298909997306</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.00928103789669</v>
+        <v>43.3120295131142</v>
       </c>
       <c r="H2">
-        <v>3.437240495787421</v>
+        <v>3.269059900396642</v>
       </c>
       <c r="I2">
-        <v>3.746347364309198</v>
+        <v>3.544332232067656</v>
       </c>
       <c r="J2">
-        <v>14.42284532476493</v>
+        <v>13.7968302795689</v>
       </c>
       <c r="K2">
-        <v>22.2526689870208</v>
+        <v>20.55436230963799</v>
       </c>
       <c r="L2">
-        <v>5.116556809647207</v>
+        <v>16.31164083113108</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.22492993499148</v>
       </c>
       <c r="N2">
-        <v>8.012817598297497</v>
+        <v>5.144387508224162</v>
       </c>
       <c r="O2">
-        <v>14.66531787741258</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.92563776449778</v>
+        <v>8.248889192012918</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.36263586032208</v>
+      </c>
+      <c r="R2">
+        <v>13.57403053649714</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.01577462814624</v>
+        <v>20.12463933525573</v>
       </c>
       <c r="C3">
-        <v>13.07289660908163</v>
+        <v>13.60253368831547</v>
       </c>
       <c r="D3">
-        <v>7.706583460558345</v>
+        <v>7.683752301375988</v>
       </c>
       <c r="E3">
-        <v>6.930564979048919</v>
+        <v>6.95138336077122</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.35163249021214</v>
+        <v>41.99450633749356</v>
       </c>
       <c r="H3">
-        <v>3.727755698013544</v>
+        <v>3.530600940859144</v>
       </c>
       <c r="I3">
-        <v>3.979217547725281</v>
+        <v>3.745048130592204</v>
       </c>
       <c r="J3">
-        <v>14.17672696009848</v>
+        <v>13.55673896198975</v>
       </c>
       <c r="K3">
-        <v>21.92336838400702</v>
+        <v>20.34557610110164</v>
       </c>
       <c r="L3">
-        <v>4.973834141337781</v>
+        <v>16.26310969205855</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.97348515232626</v>
       </c>
       <c r="N3">
-        <v>7.795908976618931</v>
+        <v>5.007829832416742</v>
       </c>
       <c r="O3">
-        <v>14.02829844355809</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.07772144193127</v>
+        <v>8.030765155230696</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.7447339307779</v>
+      </c>
+      <c r="R3">
+        <v>13.72455050002946</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.13573843632652</v>
+        <v>19.28854271229982</v>
       </c>
       <c r="C4">
-        <v>12.45182724213651</v>
+        <v>12.93755774174135</v>
       </c>
       <c r="D4">
-        <v>7.605693379135896</v>
+        <v>7.590963209428075</v>
       </c>
       <c r="E4">
-        <v>6.855482337377597</v>
+        <v>6.888852281003912</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.3155316503243</v>
+        <v>41.17596830028874</v>
       </c>
       <c r="H4">
-        <v>3.912016221798413</v>
+        <v>3.696679881101256</v>
       </c>
       <c r="I4">
-        <v>4.127533255314307</v>
+        <v>3.873318604803661</v>
       </c>
       <c r="J4">
-        <v>14.02692247544542</v>
+        <v>13.40717428211222</v>
       </c>
       <c r="K4">
-        <v>21.72225882306343</v>
+        <v>20.21780105033191</v>
       </c>
       <c r="L4">
-        <v>4.883510742963592</v>
+        <v>16.22799510003713</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.83637183474371</v>
       </c>
       <c r="N4">
-        <v>7.660618990126082</v>
+        <v>4.921414057598831</v>
       </c>
       <c r="O4">
-        <v>13.62376440260514</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.17180810125289</v>
+        <v>7.895021790137736</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.35160399155093</v>
+      </c>
+      <c r="R4">
+        <v>13.81800759835528</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.75886041396326</v>
+        <v>18.92977485019019</v>
       </c>
       <c r="C5">
-        <v>12.19640726648845</v>
+        <v>12.66336077157273</v>
       </c>
       <c r="D5">
-        <v>7.564103544300198</v>
+        <v>7.552785586990655</v>
       </c>
       <c r="E5">
-        <v>6.823889770624328</v>
+        <v>6.862517769692301</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.8663955359879</v>
+        <v>40.81875266107647</v>
       </c>
       <c r="H5">
-        <v>3.989130438644502</v>
+        <v>3.766233547503365</v>
       </c>
       <c r="I5">
-        <v>4.191928763865407</v>
+        <v>3.92984528044102</v>
       </c>
       <c r="J5">
-        <v>13.96174441437246</v>
+        <v>13.34135749626675</v>
       </c>
       <c r="K5">
-        <v>21.63131882614741</v>
+        <v>20.15725144679344</v>
       </c>
       <c r="L5">
-        <v>4.845994839791513</v>
+        <v>16.20490431446174</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.77940533024261</v>
       </c>
       <c r="N5">
-        <v>7.605714775077854</v>
+        <v>4.885546020834488</v>
       </c>
       <c r="O5">
-        <v>13.4537845110668</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.20901823621658</v>
+        <v>7.839982550309285</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.18624820432946</v>
+      </c>
+      <c r="R5">
+        <v>13.85547713069575</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.68701013873352</v>
+        <v>18.86121673239215</v>
       </c>
       <c r="C6">
-        <v>12.16026565842115</v>
+        <v>12.62391987398265</v>
       </c>
       <c r="D6">
-        <v>7.556659827351798</v>
+        <v>7.545952277575349</v>
       </c>
       <c r="E6">
-        <v>6.818063931213563</v>
+        <v>6.857644348667298</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.76367565264469</v>
+        <v>40.73292612599729</v>
       </c>
       <c r="H6">
-        <v>4.002656164055542</v>
+        <v>3.778440177781056</v>
       </c>
       <c r="I6">
-        <v>4.206007669474023</v>
+        <v>3.94311880480695</v>
       </c>
       <c r="J6">
-        <v>13.9454444702439</v>
+        <v>13.32505589978605</v>
       </c>
       <c r="K6">
-        <v>21.60487606012326</v>
+        <v>20.13670712830265</v>
       </c>
       <c r="L6">
-        <v>4.839690559363087</v>
+        <v>16.19191535298924</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.76340318111722</v>
       </c>
       <c r="N6">
-        <v>7.597439148802265</v>
+        <v>4.879543220300334</v>
       </c>
       <c r="O6">
-        <v>13.42299439551666</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.21359567863349</v>
+        <v>7.831653404490721</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.15630616124342</v>
+      </c>
+      <c r="R6">
+        <v>13.86063586635962</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.1077190972115</v>
+        <v>19.25125319974715</v>
       </c>
       <c r="C7">
-        <v>12.46636022771469</v>
+        <v>12.93441640402632</v>
       </c>
       <c r="D7">
-        <v>7.603682370498412</v>
+        <v>7.590483051011663</v>
       </c>
       <c r="E7">
-        <v>6.853585777259388</v>
+        <v>6.887333610747129</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.23416660125086</v>
+        <v>41.16739204929915</v>
       </c>
       <c r="H7">
-        <v>3.914745814470654</v>
+        <v>3.700107633890211</v>
       </c>
       <c r="I7">
-        <v>4.13717930782831</v>
+        <v>3.885057782575866</v>
       </c>
       <c r="J7">
-        <v>14.01110971434694</v>
+        <v>13.33538001817649</v>
       </c>
       <c r="K7">
-        <v>21.69015744029748</v>
+        <v>20.17480079935636</v>
       </c>
       <c r="L7">
-        <v>4.88292215572979</v>
+        <v>16.19168147823931</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.80765131366361</v>
       </c>
       <c r="N7">
-        <v>7.662237363773873</v>
+        <v>4.919956203246529</v>
       </c>
       <c r="O7">
-        <v>13.61507780922284</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.16796154864103</v>
+        <v>7.894809514575463</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.33821668498999</v>
+      </c>
+      <c r="R7">
+        <v>13.81430119606958</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.88774086590074</v>
+        <v>20.91903425903148</v>
       </c>
       <c r="C8">
-        <v>13.73073288184758</v>
+        <v>14.25208571738915</v>
       </c>
       <c r="D8">
-        <v>7.812165602837824</v>
+        <v>7.785650898796923</v>
       </c>
       <c r="E8">
-        <v>7.00699214235571</v>
+        <v>7.015387625063209</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.34631259255144</v>
+        <v>42.98651557012938</v>
       </c>
       <c r="H8">
-        <v>3.538360907964971</v>
+        <v>3.363043179351836</v>
       </c>
       <c r="I8">
-        <v>3.836850204727081</v>
+        <v>3.628238228330063</v>
       </c>
       <c r="J8">
-        <v>14.31840898205212</v>
+        <v>13.51322092896497</v>
       </c>
       <c r="K8">
-        <v>22.09884892982283</v>
+        <v>20.40092940158399</v>
       </c>
       <c r="L8">
-        <v>5.067813649648254</v>
+        <v>16.22944119428641</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.07757202783584</v>
       </c>
       <c r="N8">
-        <v>7.941537423057133</v>
+        <v>5.094750223986189</v>
       </c>
       <c r="O8">
-        <v>14.44047950437487</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.97244959863722</v>
+        <v>8.171456477863067</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.12898278361184</v>
+      </c>
+      <c r="R8">
+        <v>13.6183922610209</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.05195660310251</v>
+        <v>23.90164424534217</v>
       </c>
       <c r="C9">
-        <v>15.93873397642971</v>
+        <v>16.60295650928033</v>
       </c>
       <c r="D9">
-        <v>8.219773840718233</v>
+        <v>8.164514279780414</v>
       </c>
       <c r="E9">
-        <v>7.29437282811447</v>
+        <v>7.25461211431111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>50.45086984569421</v>
+        <v>46.33441797000551</v>
       </c>
       <c r="H9">
-        <v>2.842561643894142</v>
+        <v>2.738378980450225</v>
       </c>
       <c r="I9">
-        <v>3.274616710043409</v>
+        <v>3.143925539923351</v>
       </c>
       <c r="J9">
-        <v>14.9559055789995</v>
+        <v>14.07416453740191</v>
       </c>
       <c r="K9">
-        <v>22.96139413675977</v>
+        <v>20.94748586915752</v>
       </c>
       <c r="L9">
-        <v>5.409395493006991</v>
+        <v>16.3445559202224</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.80650744353598</v>
       </c>
       <c r="N9">
-        <v>8.466514995890311</v>
+        <v>5.420716691071689</v>
       </c>
       <c r="O9">
-        <v>15.95667527514623</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>13.60115792908062</v>
+        <v>8.699841098981787</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.59297985638327</v>
+      </c>
+      <c r="R9">
+        <v>13.25102548730346</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.07341291508404</v>
+        <v>25.75691487822619</v>
       </c>
       <c r="C10">
-        <v>17.41354835356536</v>
+        <v>18.08580699658208</v>
       </c>
       <c r="D10">
-        <v>8.467048417473487</v>
+        <v>8.401077103387619</v>
       </c>
       <c r="E10">
-        <v>7.476249399171602</v>
+        <v>7.406504470535284</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.98653199219861</v>
+        <v>48.74890863771456</v>
       </c>
       <c r="H10">
-        <v>2.388160263525512</v>
+        <v>2.338187282513259</v>
       </c>
       <c r="I10">
-        <v>2.900026443110718</v>
+        <v>2.829297793631154</v>
       </c>
       <c r="J10">
-        <v>15.35207651627816</v>
+        <v>14.10980640463879</v>
       </c>
       <c r="K10">
-        <v>23.45808897523642</v>
+        <v>21.16095982626067</v>
       </c>
       <c r="L10">
-        <v>5.668002945818158</v>
+        <v>16.26206828162096</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.26508376057835</v>
       </c>
       <c r="N10">
-        <v>8.762550769929458</v>
+        <v>5.664227283847032</v>
       </c>
       <c r="O10">
-        <v>16.90945347826202</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>13.31222139456486</v>
+        <v>8.988914046023847</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.48557872560674</v>
+      </c>
+      <c r="R10">
+        <v>12.97316816076655</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.32527198179343</v>
+        <v>25.94686869415104</v>
       </c>
       <c r="C11">
-        <v>17.98906929531409</v>
+        <v>18.47448721320254</v>
       </c>
       <c r="D11">
-        <v>8.167458686016863</v>
+        <v>8.118457620318004</v>
       </c>
       <c r="E11">
-        <v>7.454584505450007</v>
+        <v>7.392825355053263</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.20622558084276</v>
+        <v>47.84929110732307</v>
       </c>
       <c r="H11">
-        <v>3.169109687648509</v>
+        <v>3.146267457991198</v>
       </c>
       <c r="I11">
-        <v>2.825676001189384</v>
+        <v>2.77853921383435</v>
       </c>
       <c r="J11">
-        <v>14.91418391581467</v>
+        <v>13.10646201201616</v>
       </c>
       <c r="K11">
-        <v>22.55690806415223</v>
+        <v>20.20050875173186</v>
       </c>
       <c r="L11">
-        <v>5.98077029212359</v>
+        <v>15.44001031315652</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.65996901739917</v>
       </c>
       <c r="N11">
-        <v>8.241743193470272</v>
+        <v>5.96803186669515</v>
       </c>
       <c r="O11">
-        <v>16.60883280729974</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>13.06203462461548</v>
+        <v>8.437156728087873</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>16.14516306744188</v>
+      </c>
+      <c r="R11">
+        <v>12.81911959615899</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.14603113299805</v>
+        <v>25.77798315173508</v>
       </c>
       <c r="C12">
-        <v>18.15275989669362</v>
+        <v>18.52341037493226</v>
       </c>
       <c r="D12">
-        <v>7.863402648117884</v>
+        <v>7.825433215370474</v>
       </c>
       <c r="E12">
-        <v>7.498272946019815</v>
+        <v>7.442448690342728</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.23639860113644</v>
+        <v>46.43312446493793</v>
       </c>
       <c r="H12">
-        <v>4.432813633615988</v>
+        <v>4.417778013826963</v>
       </c>
       <c r="I12">
-        <v>2.819258059301246</v>
+        <v>2.774794984770414</v>
       </c>
       <c r="J12">
-        <v>14.47444058266237</v>
+        <v>12.46464356759254</v>
       </c>
       <c r="K12">
-        <v>21.72891340320317</v>
+        <v>19.43038123291518</v>
       </c>
       <c r="L12">
-        <v>6.222696016331619</v>
+        <v>14.83882923218273</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.10627101033705</v>
       </c>
       <c r="N12">
-        <v>7.746534725986494</v>
+        <v>6.206073656486387</v>
       </c>
       <c r="O12">
-        <v>16.15596750890436</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.94834073908092</v>
+        <v>7.922823215873607</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.68629561108178</v>
+      </c>
+      <c r="R12">
+        <v>12.78516770661681</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.59124751613884</v>
+        <v>25.31179114732561</v>
       </c>
       <c r="C13">
-        <v>18.0349813376371</v>
+        <v>18.36722342103744</v>
       </c>
       <c r="D13">
-        <v>7.533088974589733</v>
+        <v>7.49959666029153</v>
       </c>
       <c r="E13">
-        <v>7.588062006792086</v>
+        <v>7.544368477876914</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>46.85432619803045</v>
+        <v>44.24761883753515</v>
       </c>
       <c r="H13">
-        <v>5.808911098975917</v>
+        <v>5.792295082835549</v>
       </c>
       <c r="I13">
-        <v>2.880422539094479</v>
+        <v>2.823737379989184</v>
       </c>
       <c r="J13">
-        <v>13.98011218572662</v>
+        <v>12.13595493722527</v>
       </c>
       <c r="K13">
-        <v>20.85646075581986</v>
+        <v>18.7414194957484</v>
       </c>
       <c r="L13">
-        <v>6.423577401682397</v>
+        <v>14.34682773635072</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.54936733688249</v>
       </c>
       <c r="N13">
-        <v>7.242583020077688</v>
+        <v>6.41129827848579</v>
       </c>
       <c r="O13">
-        <v>15.53973933923462</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.92501666014792</v>
+        <v>7.410341388107264</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.10010408869613</v>
+      </c>
+      <c r="R13">
+        <v>12.82559193765699</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.01983690945456</v>
+        <v>24.8382211146243</v>
       </c>
       <c r="C14">
-        <v>17.82797124382576</v>
+        <v>18.16580321415462</v>
       </c>
       <c r="D14">
-        <v>7.290052167617944</v>
+        <v>7.257334245883254</v>
       </c>
       <c r="E14">
-        <v>7.681595818087325</v>
+        <v>7.651858606771428</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.96086157741164</v>
+        <v>42.34149040910817</v>
       </c>
       <c r="H14">
-        <v>6.802938082169686</v>
+        <v>6.78306171078736</v>
       </c>
       <c r="I14">
-        <v>2.956681866329955</v>
+        <v>2.88538717644622</v>
       </c>
       <c r="J14">
-        <v>13.60464966380347</v>
+        <v>12.02777513991374</v>
       </c>
       <c r="K14">
-        <v>20.21920308735966</v>
+        <v>18.28612306279179</v>
       </c>
       <c r="L14">
-        <v>6.549077323898994</v>
+        <v>14.04053546704823</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.15346564608978</v>
       </c>
       <c r="N14">
-        <v>6.890696699826965</v>
+        <v>6.544124065332248</v>
       </c>
       <c r="O14">
-        <v>15.02641401193303</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.95210568232592</v>
+        <v>7.056548270659474</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.62361290353812</v>
+      </c>
+      <c r="R14">
+        <v>12.88538636910811</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.79158711908117</v>
+        <v>24.64947807022424</v>
       </c>
       <c r="C15">
-        <v>17.7219783655034</v>
+        <v>18.07506803393938</v>
       </c>
       <c r="D15">
-        <v>7.22509024897096</v>
+        <v>7.191735081919985</v>
       </c>
       <c r="E15">
-        <v>7.700874017296036</v>
+        <v>7.677504773529542</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.38750083755083</v>
+        <v>41.70314420469528</v>
       </c>
       <c r="H15">
-        <v>7.03901533095723</v>
+        <v>7.017194485312229</v>
       </c>
       <c r="I15">
-        <v>2.994731916834528</v>
+        <v>2.91747108319188</v>
       </c>
       <c r="J15">
-        <v>13.49758904216697</v>
+        <v>12.0498132608327</v>
       </c>
       <c r="K15">
-        <v>20.04587360360838</v>
+        <v>18.18026869151342</v>
       </c>
       <c r="L15">
-        <v>6.567316671862337</v>
+        <v>13.97708567145368</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.04943785022154</v>
       </c>
       <c r="N15">
-        <v>6.802762548891065</v>
+        <v>6.566220506370561</v>
       </c>
       <c r="O15">
-        <v>14.86433825586907</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.97344008642234</v>
+        <v>6.969910827658459</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.47734508295544</v>
+      </c>
+      <c r="R15">
+        <v>12.91063474813595</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.02058585547577</v>
+        <v>24.00810667959724</v>
       </c>
       <c r="C16">
-        <v>17.14342172836786</v>
+        <v>17.61153864405282</v>
       </c>
       <c r="D16">
-        <v>7.1800669157035</v>
+        <v>7.140430434879816</v>
       </c>
       <c r="E16">
-        <v>7.599844983455006</v>
+        <v>7.600804586804351</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.63266452094469</v>
+        <v>40.44594115406606</v>
       </c>
       <c r="H16">
-        <v>6.884596165975715</v>
+        <v>6.849912559018294</v>
       </c>
       <c r="I16">
-        <v>3.147257478241372</v>
+        <v>3.041831444844821</v>
       </c>
       <c r="J16">
-        <v>13.40845615175115</v>
+        <v>12.49286951381642</v>
       </c>
       <c r="K16">
-        <v>19.97965772487848</v>
+        <v>18.3016916470854</v>
       </c>
       <c r="L16">
-        <v>6.422913609701355</v>
+        <v>14.13829459410708</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.03742002537193</v>
       </c>
       <c r="N16">
-        <v>6.769982870339208</v>
+        <v>6.439239267090871</v>
       </c>
       <c r="O16">
-        <v>14.55543012296257</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.09310776104864</v>
+        <v>6.952997157165747</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.2249980384299</v>
+      </c>
+      <c r="R16">
+        <v>12.99597046920835</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.73610765578481</v>
+        <v>23.75735193087824</v>
       </c>
       <c r="C17">
-        <v>16.80630310818011</v>
+        <v>17.34107982034705</v>
       </c>
       <c r="D17">
-        <v>7.275675000098783</v>
+        <v>7.232158132318557</v>
       </c>
       <c r="E17">
-        <v>7.463848971548372</v>
+        <v>7.4710421210058</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>44.09074209290154</v>
+        <v>40.61344465281302</v>
       </c>
       <c r="H17">
-        <v>6.217792327981814</v>
+        <v>6.17237960600323</v>
       </c>
       <c r="I17">
-        <v>3.224720666528142</v>
+        <v>3.106482083686186</v>
       </c>
       <c r="J17">
-        <v>13.54245211096964</v>
+        <v>12.83262958805869</v>
       </c>
       <c r="K17">
-        <v>20.26894450977881</v>
+        <v>18.62333334999812</v>
       </c>
       <c r="L17">
-        <v>6.239894623902292</v>
+        <v>14.4218623951008</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.22472462627356</v>
       </c>
       <c r="N17">
-        <v>6.931089520312986</v>
+        <v>6.263040605394584</v>
       </c>
       <c r="O17">
-        <v>14.5988348732984</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.16968842596219</v>
+        <v>7.126091137859179</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.28594619100448</v>
+      </c>
+      <c r="R17">
+        <v>13.03635854472782</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.86340336182703</v>
+        <v>23.8559005374988</v>
       </c>
       <c r="C18">
-        <v>16.63409329138968</v>
+        <v>17.22846920166073</v>
       </c>
       <c r="D18">
-        <v>7.506256938734425</v>
+        <v>7.457344649872594</v>
       </c>
       <c r="E18">
-        <v>7.327617414692611</v>
+        <v>7.326870802521474</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>45.69344486229279</v>
+        <v>41.93696498742001</v>
       </c>
       <c r="H18">
-        <v>5.078156922435583</v>
+        <v>5.020980423284689</v>
       </c>
       <c r="I18">
-        <v>3.233716179419687</v>
+        <v>3.111739297784905</v>
       </c>
       <c r="J18">
-        <v>13.89304004031356</v>
+        <v>13.2333436466342</v>
       </c>
       <c r="K18">
-        <v>20.92164756738195</v>
+        <v>19.20390937647444</v>
       </c>
       <c r="L18">
-        <v>6.015302975617328</v>
+        <v>14.88554797988138</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.63572664937049</v>
       </c>
       <c r="N18">
-        <v>7.289489905369183</v>
+        <v>6.038902898069727</v>
       </c>
       <c r="O18">
-        <v>14.95536461311426</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.23408999917051</v>
+        <v>7.497069096018801</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.63730784624825</v>
+      </c>
+      <c r="R18">
+        <v>13.05260188895645</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.27319230998159</v>
+        <v>24.19865457011863</v>
       </c>
       <c r="C19">
-        <v>16.6360982840539</v>
+        <v>17.29009492018544</v>
       </c>
       <c r="D19">
-        <v>7.829208031726942</v>
+        <v>7.773136586725982</v>
       </c>
       <c r="E19">
-        <v>7.270336633632724</v>
+        <v>7.250697778370096</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>47.95417761592488</v>
+        <v>43.90097886287998</v>
       </c>
       <c r="H19">
-        <v>3.782034861403752</v>
+        <v>3.711203064092991</v>
       </c>
       <c r="I19">
-        <v>3.20314477675261</v>
+        <v>3.088317886946109</v>
       </c>
       <c r="J19">
-        <v>14.36599971037686</v>
+        <v>13.67212925013532</v>
       </c>
       <c r="K19">
-        <v>21.77408434688925</v>
+        <v>19.92061884927038</v>
       </c>
       <c r="L19">
-        <v>5.795434279552579</v>
+        <v>15.43874544508061</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.17121418852001</v>
       </c>
       <c r="N19">
-        <v>7.800002722094526</v>
+        <v>5.814736246251102</v>
       </c>
       <c r="O19">
-        <v>15.52003397676745</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>13.30326975151464</v>
+        <v>8.020319775825859</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.18318119678244</v>
+      </c>
+      <c r="R19">
+        <v>13.064474027482</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.49753840741086</v>
+        <v>25.25589109670176</v>
       </c>
       <c r="C20">
-        <v>17.07747584625952</v>
+        <v>17.79304047149684</v>
       </c>
       <c r="D20">
-        <v>8.396256747859027</v>
+        <v>8.328600325740302</v>
       </c>
       <c r="E20">
-        <v>7.423982317087202</v>
+        <v>7.362312181771458</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>52.11245021041262</v>
+        <v>47.70301046670312</v>
       </c>
       <c r="H20">
-        <v>2.510298285570403</v>
+        <v>2.442786383445513</v>
       </c>
       <c r="I20">
-        <v>3.028624708617288</v>
+        <v>2.944574991215944</v>
       </c>
       <c r="J20">
-        <v>15.20199252843607</v>
+        <v>14.24206455908743</v>
       </c>
       <c r="K20">
-        <v>23.23262234751818</v>
+        <v>21.06347050437897</v>
       </c>
       <c r="L20">
-        <v>5.601692747622353</v>
+        <v>16.25345514273659</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.10954640799471</v>
       </c>
       <c r="N20">
-        <v>8.688781676080962</v>
+        <v>5.605252082505065</v>
       </c>
       <c r="O20">
-        <v>16.64359839991611</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>13.37582453388642</v>
+        <v>8.922091214190338</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.25134808106299</v>
+      </c>
+      <c r="R20">
+        <v>13.04287332263189</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.09962925442565</v>
+        <v>26.56892331715246</v>
       </c>
       <c r="C21">
-        <v>18.16859642537601</v>
+        <v>18.66519958535943</v>
       </c>
       <c r="D21">
-        <v>8.658947399096407</v>
+        <v>8.607175675337768</v>
       </c>
       <c r="E21">
-        <v>7.59356000823488</v>
+        <v>7.508983125065181</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>54.57196142800227</v>
+        <v>51.12657219890686</v>
       </c>
       <c r="H21">
-        <v>2.12171657552303</v>
+        <v>2.111500185696785</v>
       </c>
       <c r="I21">
-        <v>2.730246342424212</v>
+        <v>2.706256255285935</v>
       </c>
       <c r="J21">
-        <v>15.62376606411693</v>
+        <v>13.42506494868237</v>
       </c>
       <c r="K21">
-        <v>23.82982091678458</v>
+        <v>21.17220198226479</v>
       </c>
       <c r="L21">
-        <v>5.765380868444367</v>
+        <v>16.14748749208976</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.43238764063206</v>
       </c>
       <c r="N21">
-        <v>9.029166202407431</v>
+        <v>5.740260679283444</v>
       </c>
       <c r="O21">
-        <v>17.48093711589502</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>13.18182082867049</v>
+        <v>9.231348974654923</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.96024599159452</v>
+      </c>
+      <c r="R21">
+        <v>12.82835895239977</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.09139581242896</v>
+        <v>27.37149477654557</v>
       </c>
       <c r="C22">
-        <v>18.83596205091806</v>
+        <v>19.1772977574074</v>
       </c>
       <c r="D22">
-        <v>8.806682426847239</v>
+        <v>8.768336353158862</v>
       </c>
       <c r="E22">
-        <v>7.694488521951366</v>
+        <v>7.598719140417332</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>56.06294219641027</v>
+        <v>53.34118243517588</v>
       </c>
       <c r="H22">
-        <v>1.884444028155255</v>
+        <v>1.911151720753133</v>
       </c>
       <c r="I22">
-        <v>2.530158171136843</v>
+        <v>2.54255914717585</v>
       </c>
       <c r="J22">
-        <v>15.88130897324644</v>
+        <v>12.82903530616928</v>
       </c>
       <c r="K22">
-        <v>24.19174114655161</v>
+        <v>21.20557996023589</v>
       </c>
       <c r="L22">
-        <v>5.880624892464078</v>
+        <v>16.04905686634554</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.62135200967664</v>
       </c>
       <c r="N22">
-        <v>9.206378469586133</v>
+        <v>5.836898243542404</v>
       </c>
       <c r="O22">
-        <v>17.97715457570054</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>13.05151588379685</v>
+        <v>9.385891246326478</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.3698317477034</v>
+      </c>
+      <c r="R22">
+        <v>12.68849521994405</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.58602840566299</v>
+        <v>26.98599086753343</v>
       </c>
       <c r="C23">
-        <v>18.46717997695136</v>
+        <v>18.92309779325638</v>
       </c>
       <c r="D23">
-        <v>8.72940782792463</v>
+        <v>8.680133508763465</v>
       </c>
       <c r="E23">
-        <v>7.642187505925804</v>
+        <v>7.55110904343606</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>55.34226035963978</v>
+        <v>52.07657339339442</v>
       </c>
       <c r="H23">
-        <v>2.009030435426419</v>
+        <v>2.014521087060406</v>
       </c>
       <c r="I23">
-        <v>2.623605065674799</v>
+        <v>2.613078421103356</v>
       </c>
       <c r="J23">
-        <v>15.75956203695179</v>
+        <v>13.28657677050498</v>
       </c>
       <c r="K23">
-        <v>24.03152081981886</v>
+        <v>21.2506994073973</v>
       </c>
       <c r="L23">
-        <v>5.819342771999538</v>
+        <v>16.14758328644369</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.56922846647363</v>
       </c>
       <c r="N23">
-        <v>9.109622180291613</v>
+        <v>5.787450153712618</v>
       </c>
       <c r="O23">
-        <v>17.71984544149459</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>13.12536758951088</v>
+        <v>9.305230752621888</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.16905456083072</v>
+      </c>
+      <c r="R23">
+        <v>12.76608994189519</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.55897901586044</v>
+        <v>25.31096402102384</v>
       </c>
       <c r="C24">
-        <v>17.0427611488349</v>
+        <v>17.76612721707704</v>
       </c>
       <c r="D24">
-        <v>8.432151965956381</v>
+        <v>8.363489806038928</v>
       </c>
       <c r="E24">
-        <v>7.439643496038189</v>
+        <v>7.375451115382966</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>52.44925364064997</v>
+        <v>47.99768078694244</v>
       </c>
       <c r="H24">
-        <v>2.491185593021765</v>
+        <v>2.424169841081337</v>
       </c>
       <c r="I24">
-        <v>3.007316093164083</v>
+        <v>2.920503061627984</v>
       </c>
       <c r="J24">
-        <v>15.27485490727869</v>
+        <v>14.31730608614124</v>
       </c>
       <c r="K24">
-        <v>23.37457341265892</v>
+        <v>21.18978772581269</v>
       </c>
       <c r="L24">
-        <v>5.583111723997683</v>
+        <v>16.35199965051281</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.20240561929921</v>
       </c>
       <c r="N24">
-        <v>8.740878475654799</v>
+        <v>5.585982577054803</v>
       </c>
       <c r="O24">
-        <v>16.70529118572072</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>13.39831235935871</v>
+        <v>8.975774297577312</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.31142674904138</v>
+      </c>
+      <c r="R24">
+        <v>13.05431059656964</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.20011598092038</v>
+        <v>23.11238212521609</v>
       </c>
       <c r="C25">
-        <v>15.39362816105355</v>
+        <v>16.04149478045194</v>
       </c>
       <c r="D25">
-        <v>8.107682464905071</v>
+        <v>8.05816846295423</v>
       </c>
       <c r="E25">
-        <v>7.215794230116512</v>
+        <v>7.188974624499686</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.2378645771733</v>
+        <v>45.23499466431861</v>
       </c>
       <c r="H25">
-        <v>3.02897713030635</v>
+        <v>2.904311353913599</v>
       </c>
       <c r="I25">
-        <v>3.438928961017609</v>
+        <v>3.288834738065757</v>
       </c>
       <c r="J25">
-        <v>14.75715826602725</v>
+        <v>13.97625650887285</v>
       </c>
       <c r="K25">
-        <v>22.67430215689263</v>
+        <v>20.7690170024235</v>
       </c>
       <c r="L25">
-        <v>5.319114256069227</v>
+        <v>16.29429788231546</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.57376996214235</v>
       </c>
       <c r="N25">
-        <v>8.330755516197971</v>
+        <v>5.335999542962607</v>
       </c>
       <c r="O25">
-        <v>15.54913001928679</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>13.69414455537694</v>
+        <v>8.565110460230931</v>
       </c>
       <c r="Q25">
+        <v>15.20652520121894</v>
+      </c>
+      <c r="R25">
+        <v>13.34733326321972</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
